--- a/decoder_14seg/bitmaps.xlsx
+++ b/decoder_14seg/bitmaps.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:R257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C218" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1:P1048576"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="R2" sqref="R2:R257"/>
@@ -554,51 +554,51 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f t="shared" ref="Q3:Q66" si="1">P3&amp;O3&amp;N3&amp;M3&amp;L3&amp;K3&amp;J3&amp;I3&amp;H3&amp;G3&amp;F3&amp;E3&amp;D3&amp;C3</f>
-        <v>11111111111111</v>
+        <v>01010101010101</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R66" si="2">"    8'd"&amp;A3&amp;":  Temp = 14'b"&amp;Q3&amp;";"</f>
-        <v xml:space="preserve">    8'd1:  Temp = 14'b11111111111111;</v>
+        <v xml:space="preserve">    8'd1:  Temp = 14'b01010101010101;</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2623,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>17</v>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="Q38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01010101101001</v>
+        <v>01010101101101</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd36:  Temp = 14'b01010101101001;</v>
+        <v xml:space="preserve">    8'd36:  Temp = 14'b01010101101101;</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3446,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>18</v>
@@ -3486,11 +3486,11 @@
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00101000101011</v>
+        <v>00101000101001</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd50:  Temp = 14'b00101000101011;</v>
+        <v xml:space="preserve">    8'd50:  Temp = 14'b00101000101001;</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3650,7 +3650,7 @@
         <v>18</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>18</v>
@@ -3659,15 +3659,15 @@
         <v>18</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10000001101101</v>
+        <v>00010001101101</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd53:  Temp = 14'b10000001101101;</v>
+        <v xml:space="preserve">    8'd53:  Temp = 14'b00010001101101;</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4092,7 +4092,7 @@
         <v>=</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>18</v>
@@ -4110,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>18</v>
@@ -4122,7 +4122,7 @@
         <v>18</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>18</v>
@@ -4135,11 +4135,11 @@
       </c>
       <c r="Q63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00000000001001</v>
+        <v>00010001001000</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd61:  Temp = 14'b00000000001001;</v>
+        <v xml:space="preserve">    8'd61:  Temp = 14'b00010001001000;</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5231,7 +5231,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>18</v>
@@ -5256,11 +5256,11 @@
       </c>
       <c r="Q82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>00010000110011</v>
+        <v>00010001110011</v>
       </c>
       <c r="R82" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    8'd80:  Temp = 14'b00010000110011;</v>
+        <v xml:space="preserve">    8'd80:  Temp = 14'b00010001110011;</v>
       </c>
     </row>
     <row r="83" spans="1:18">

--- a/decoder_14seg/bitmaps.xlsx
+++ b/decoder_14seg/bitmaps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="20">
   <si>
     <t>Kod</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1:P1048576"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE232" sqref="AE232"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -525,6 +528,9 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2">
@@ -580,9 +586,9 @@
         <f>P2&amp;O2&amp;N2&amp;M2&amp;L2&amp;K2&amp;J2&amp;I2&amp;H2&amp;G2&amp;F2&amp;E2&amp;D2&amp;C2</f>
         <v>00000000000000</v>
       </c>
-      <c r="R2" t="str">
-        <f>"    8'd"&amp;A2&amp;":  Temp = 14'b"&amp;Q2&amp;";"</f>
-        <v xml:space="preserve">    8'd0:  Temp = 14'b00000000000000;</v>
+      <c r="R2" t="e">
+        <f>$R$1&amp;B2&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q2&amp;";"</f>
+        <v>#VALUE!</v>
       </c>
       <c r="X2" t="str">
         <f>BIN2HEX(VALUE(P2&amp;O2),1)</f>
@@ -660,8 +666,8 @@
         <v>01010101010101</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R66" si="2">"    8'd"&amp;A3&amp;":  Temp = 14'b"&amp;Q3&amp;";"</f>
-        <v xml:space="preserve">    8'd1:  Temp = 14'b01010101010101;</v>
+        <f t="shared" ref="R3:R66" si="2">$R$1&amp;B3&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q3&amp;";"</f>
+        <v>"_x0001_":  Segments_o = 14'b01010101010101;</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X66" si="3">BIN2HEX(VALUE(P3&amp;O3),1)</f>
@@ -740,7 +746,7 @@
       </c>
       <c r="R4" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd2:  Temp = 14'b00000000000001;</v>
+        <v>"_x0002_":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="3"/>
@@ -819,7 +825,7 @@
       </c>
       <c r="R5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd3:  Temp = 14'b00000000000010;</v>
+        <v>"_x0003_":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="3"/>
@@ -898,7 +904,7 @@
       </c>
       <c r="R6" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd4:  Temp = 14'b00000000000100;</v>
+        <v>"_x0004_":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="3"/>
@@ -977,7 +983,7 @@
       </c>
       <c r="R7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd5:  Temp = 14'b00000000001000;</v>
+        <v>"_x0005_":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="3"/>
@@ -1056,7 +1062,7 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd6:  Temp = 14'b00000000010000;</v>
+        <v>"_x0006_":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="3"/>
@@ -1135,7 +1141,7 @@
       </c>
       <c r="R9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd7:  Temp = 14'b00000000100000;</v>
+        <v>"_x0007_":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="3"/>
@@ -1214,7 +1220,7 @@
       </c>
       <c r="R10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd8:  Temp = 14'b00000001000000;</v>
+        <v>"_x0008_":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="3"/>
@@ -1293,7 +1299,7 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd9:  Temp = 14'b00000010000000;</v>
+        <v>"	":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="3"/>
@@ -1373,7 +1379,8 @@
       </c>
       <c r="R12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd10:  Temp = 14'b00000100000000;</v>
+        <v>"
+":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="3"/>
@@ -1452,7 +1459,7 @@
       </c>
       <c r="R13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd11:  Temp = 14'b00001000000000;</v>
+        <v>"_x000B_":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="3"/>
@@ -1531,7 +1538,7 @@
       </c>
       <c r="R14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd12:  Temp = 14'b00010000000000;</v>
+        <v>"_x000C_":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="3"/>
@@ -1610,7 +1617,7 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd13:  Temp = 14'b00100000000000;</v>
+        <v>"_x000D_":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="3"/>
@@ -1689,7 +1696,7 @@
       </c>
       <c r="R16" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd14:  Temp = 14'b01000000000000;</v>
+        <v>"_x000E_":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="3"/>
@@ -1768,7 +1775,7 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd15:  Temp = 14'b10000000000000;</v>
+        <v>"_x000F_":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="3"/>
@@ -1847,7 +1854,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd16:  Temp = 14'b00000000000001;</v>
+        <v>"_x0010_":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="3"/>
@@ -1926,7 +1933,7 @@
       </c>
       <c r="R19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd17:  Temp = 14'b00000000000010;</v>
+        <v>"_x0011_":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="3"/>
@@ -2005,7 +2012,7 @@
       </c>
       <c r="R20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd18:  Temp = 14'b00000000000100;</v>
+        <v>"_x0012_":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="3"/>
@@ -2084,7 +2091,7 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd19:  Temp = 14'b00000000001000;</v>
+        <v>"_x0013_":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="3"/>
@@ -2163,7 +2170,7 @@
       </c>
       <c r="R22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd20:  Temp = 14'b00000000010000;</v>
+        <v>"_x0014_":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="3"/>
@@ -2242,7 +2249,7 @@
       </c>
       <c r="R23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd21:  Temp = 14'b00000000100000;</v>
+        <v>"_x0015_":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="3"/>
@@ -2321,7 +2328,7 @@
       </c>
       <c r="R24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd22:  Temp = 14'b00000001000000;</v>
+        <v>"_x0016_":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="3"/>
@@ -2400,7 +2407,7 @@
       </c>
       <c r="R25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd23:  Temp = 14'b00000010000000;</v>
+        <v>"_x0017_":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" si="3"/>
@@ -2479,7 +2486,7 @@
       </c>
       <c r="R26" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd24:  Temp = 14'b00000100000000;</v>
+        <v>"_x0018_":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="3"/>
@@ -2558,7 +2565,7 @@
       </c>
       <c r="R27" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd25:  Temp = 14'b00001000000000;</v>
+        <v>"_x0019_":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="3"/>
@@ -2637,7 +2644,7 @@
       </c>
       <c r="R28" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd26:  Temp = 14'b00010000000000;</v>
+        <v>"_x001A_":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="3"/>
@@ -2716,7 +2723,7 @@
       </c>
       <c r="R29" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd27:  Temp = 14'b00100000000000;</v>
+        <v>"_x001B_":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="3"/>
@@ -2795,7 +2802,7 @@
       </c>
       <c r="R30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd28:  Temp = 14'b01000000000000;</v>
+        <v>"_x001C_":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="3"/>
@@ -2874,7 +2881,7 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd29:  Temp = 14'b10000000000000;</v>
+        <v>"_x001D_":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="3"/>
@@ -2953,7 +2960,7 @@
       </c>
       <c r="R32" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd30:  Temp = 14'b00000000000001;</v>
+        <v>"_x001E_":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="3"/>
@@ -3032,7 +3039,7 @@
       </c>
       <c r="R33" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd31:  Temp = 14'b00000000000010;</v>
+        <v>"_x001F_":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="3"/>
@@ -3111,7 +3118,7 @@
       </c>
       <c r="R34" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd32:  Temp = 14'b00000000000100;</v>
+        <v>" ":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="3"/>
@@ -3190,7 +3197,7 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd33:  Temp = 14'b01000100001000;</v>
+        <v>"!":  Segments_o = 14'b01000100001000;</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="3"/>
@@ -3269,7 +3276,7 @@
       </c>
       <c r="R36" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd34:  Temp = 14'b00000000100010;</v>
+        <v>""":  Segments_o = 14'b00000000100010;</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="3"/>
@@ -3348,7 +3355,7 @@
       </c>
       <c r="R37" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd35:  Temp = 14'b11111111111111;</v>
+        <v>"#":  Segments_o = 14'b11111111111111;</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="3"/>
@@ -3427,7 +3434,7 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd36:  Temp = 14'b01010101101101;</v>
+        <v>"$":  Segments_o = 14'b01010101101101;</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="3"/>
@@ -3506,7 +3513,7 @@
       </c>
       <c r="R39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd37:  Temp = 14'b00101000100100;</v>
+        <v>"%":  Segments_o = 14'b00101000100100;</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="3"/>
@@ -3585,7 +3592,7 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd38:  Temp = 14'b11111111111111;</v>
+        <v>"&amp;":  Segments_o = 14'b11111111111111;</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="3"/>
@@ -3664,7 +3671,7 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd39:  Temp = 14'b00000100000000;</v>
+        <v>"'":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="3"/>
@@ -3743,7 +3750,7 @@
       </c>
       <c r="R42" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd40:  Temp = 14'b10001000000000;</v>
+        <v>"(":  Segments_o = 14'b10001000000000;</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="3"/>
@@ -3822,7 +3829,7 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd41:  Temp = 14'b00100010000000;</v>
+        <v>")":  Segments_o = 14'b00100010000000;</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="3"/>
@@ -3901,7 +3908,7 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd42:  Temp = 14'b11111111000000;</v>
+        <v>"*":  Segments_o = 14'b11111111000000;</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="3"/>
@@ -3980,7 +3987,7 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd43:  Temp = 14'b01010101000000;</v>
+        <v>"+":  Segments_o = 14'b01010101000000;</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" si="3"/>
@@ -4059,7 +4066,7 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd44:  Temp = 14'b00100000000000;</v>
+        <v>",":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" si="3"/>
@@ -4138,7 +4145,7 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd45:  Temp = 14'b00010001000000;</v>
+        <v>"-":  Segments_o = 14'b00010001000000;</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="3"/>
@@ -4217,7 +4224,7 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd46:  Temp = 14'b01000000000000;</v>
+        <v>".":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="3"/>
@@ -4296,7 +4303,7 @@
       </c>
       <c r="R49" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd47:  Temp = 14'b00101000000000;</v>
+        <v>"/":  Segments_o = 14'b00101000000000;</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="3"/>
@@ -4375,7 +4382,7 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd48:  Temp = 14'b00000000111111;</v>
+        <v>"0":  Segments_o = 14'b00000000111111;</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="3"/>
@@ -4454,7 +4461,7 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd49:  Temp = 14'b00001000000110;</v>
+        <v>"1":  Segments_o = 14'b00001000000110;</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="3"/>
@@ -4533,7 +4540,7 @@
       </c>
       <c r="R52" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd50:  Temp = 14'b00101000101001;</v>
+        <v>"2":  Segments_o = 14'b00101000101001;</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="3"/>
@@ -4612,7 +4619,7 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd51:  Temp = 14'b00010000001111;</v>
+        <v>"3":  Segments_o = 14'b00010000001111;</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="3"/>
@@ -4691,7 +4698,7 @@
       </c>
       <c r="R54" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd52:  Temp = 14'b00010001100110;</v>
+        <v>"4":  Segments_o = 14'b00010001100110;</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="3"/>
@@ -4770,7 +4777,7 @@
       </c>
       <c r="R55" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd53:  Temp = 14'b00010001101101;</v>
+        <v>"5":  Segments_o = 14'b00010001101101;</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="3"/>
@@ -4849,7 +4856,7 @@
       </c>
       <c r="R56" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd54:  Temp = 14'b00010001111101;</v>
+        <v>"6":  Segments_o = 14'b00010001111101;</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="3"/>
@@ -4928,7 +4935,7 @@
       </c>
       <c r="R57" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd55:  Temp = 14'b01001000000001;</v>
+        <v>"7":  Segments_o = 14'b01001000000001;</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="3"/>
@@ -5007,7 +5014,7 @@
       </c>
       <c r="R58" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd56:  Temp = 14'b00010001111111;</v>
+        <v>"8":  Segments_o = 14'b00010001111111;</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="3"/>
@@ -5086,7 +5093,7 @@
       </c>
       <c r="R59" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd57:  Temp = 14'b00010001101111;</v>
+        <v>"9":  Segments_o = 14'b00010001101111;</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -5165,7 +5172,7 @@
       </c>
       <c r="R60" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd58:  Temp = 14'b11111111111111;</v>
+        <v>":":  Segments_o = 14'b11111111111111;</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="3"/>
@@ -5244,7 +5251,7 @@
       </c>
       <c r="R61" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd59:  Temp = 14'b11111111111111;</v>
+        <v>";":  Segments_o = 14'b11111111111111;</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="3"/>
@@ -5323,7 +5330,7 @@
       </c>
       <c r="R62" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd60:  Temp = 14'b10001000000000;</v>
+        <v>"&lt;":  Segments_o = 14'b10001000000000;</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="3"/>
@@ -5402,7 +5409,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd61:  Temp = 14'b00010001001000;</v>
+        <v>"=":  Segments_o = 14'b00010001001000;</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="3"/>
@@ -5481,7 +5488,7 @@
       </c>
       <c r="R64" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd62:  Temp = 14'b00100010000000;</v>
+        <v>"&gt;":  Segments_o = 14'b00100010000000;</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="3"/>
@@ -5560,7 +5567,7 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd63:  Temp = 14'b01010000100011;</v>
+        <v>"?":  Segments_o = 14'b01010000100011;</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" si="3"/>
@@ -5639,7 +5646,7 @@
       </c>
       <c r="R66" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    8'd64:  Temp = 14'b00010000111011;</v>
+        <v>"@":  Segments_o = 14'b00010000111011;</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" si="3"/>
@@ -5717,8 +5724,8 @@
         <v>00010001110111</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ref="R67:R130" si="10">"    8'd"&amp;A67&amp;":  Temp = 14'b"&amp;Q67&amp;";"</f>
-        <v xml:space="preserve">    8'd65:  Temp = 14'b00010001110111;</v>
+        <f t="shared" ref="R67:R130" si="10">$R$1&amp;B67&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q67&amp;";"</f>
+        <v>"A":  Segments_o = 14'b00010001110111;</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" ref="X67:X130" si="11">BIN2HEX(VALUE(P67&amp;O67),1)</f>
@@ -5797,7 +5804,7 @@
       </c>
       <c r="R68" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd66:  Temp = 14'b01010100001111;</v>
+        <v>"B":  Segments_o = 14'b01010100001111;</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" si="11"/>
@@ -5876,7 +5883,7 @@
       </c>
       <c r="R69" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd67:  Temp = 14'b00000000111001;</v>
+        <v>"C":  Segments_o = 14'b00000000111001;</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="11"/>
@@ -5955,7 +5962,7 @@
       </c>
       <c r="R70" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd68:  Temp = 14'b01000100001111;</v>
+        <v>"D":  Segments_o = 14'b01000100001111;</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="11"/>
@@ -6034,7 +6041,7 @@
       </c>
       <c r="R71" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd69:  Temp = 14'b00000001111001;</v>
+        <v>"E":  Segments_o = 14'b00000001111001;</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" si="11"/>
@@ -6113,7 +6120,7 @@
       </c>
       <c r="R72" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd70:  Temp = 14'b00000001110001;</v>
+        <v>"F":  Segments_o = 14'b00000001110001;</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="11"/>
@@ -6192,7 +6199,7 @@
       </c>
       <c r="R73" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd71:  Temp = 14'b00010000111101;</v>
+        <v>"G":  Segments_o = 14'b00010000111101;</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" si="11"/>
@@ -6271,7 +6278,7 @@
       </c>
       <c r="R74" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd72:  Temp = 14'b00010001110110;</v>
+        <v>"H":  Segments_o = 14'b00010001110110;</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" si="11"/>
@@ -6350,7 +6357,7 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd73:  Temp = 14'b01000100001001;</v>
+        <v>"I":  Segments_o = 14'b01000100001001;</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" si="11"/>
@@ -6429,7 +6436,7 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd74:  Temp = 14'b00000000011110;</v>
+        <v>"J":  Segments_o = 14'b00000000011110;</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" si="11"/>
@@ -6508,7 +6515,7 @@
       </c>
       <c r="R77" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd75:  Temp = 14'b10001001110000;</v>
+        <v>"K":  Segments_o = 14'b10001001110000;</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" si="11"/>
@@ -6587,7 +6594,7 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd76:  Temp = 14'b00000000111000;</v>
+        <v>"L":  Segments_o = 14'b00000000111000;</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" si="11"/>
@@ -6666,7 +6673,7 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd77:  Temp = 14'b00001010110110;</v>
+        <v>"M":  Segments_o = 14'b00001010110110;</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" si="11"/>
@@ -6745,7 +6752,7 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd78:  Temp = 14'b10000010110110;</v>
+        <v>"N":  Segments_o = 14'b10000010110110;</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" si="11"/>
@@ -6824,7 +6831,7 @@
       </c>
       <c r="R81" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd79:  Temp = 14'b00000000111111;</v>
+        <v>"O":  Segments_o = 14'b00000000111111;</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" si="11"/>
@@ -6903,7 +6910,7 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd80:  Temp = 14'b00010001110011;</v>
+        <v>"P":  Segments_o = 14'b00010001110011;</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" si="11"/>
@@ -6982,7 +6989,7 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd81:  Temp = 14'b10000000111111;</v>
+        <v>"Q":  Segments_o = 14'b10000000111111;</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" si="11"/>
@@ -7061,7 +7068,7 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd82:  Temp = 14'b10010001110011;</v>
+        <v>"R":  Segments_o = 14'b10010001110011;</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" si="11"/>
@@ -7140,7 +7147,7 @@
       </c>
       <c r="R85" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd83:  Temp = 14'b00010001101101;</v>
+        <v>"S":  Segments_o = 14'b00010001101101;</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" si="11"/>
@@ -7219,7 +7226,7 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd84:  Temp = 14'b01000100000001;</v>
+        <v>"T":  Segments_o = 14'b01000100000001;</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" si="11"/>
@@ -7298,7 +7305,7 @@
       </c>
       <c r="R87" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd85:  Temp = 14'b00000000111110;</v>
+        <v>"U":  Segments_o = 14'b00000000111110;</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" si="11"/>
@@ -7377,7 +7384,7 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd86:  Temp = 14'b00101000110000;</v>
+        <v>"V":  Segments_o = 14'b00101000110000;</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" si="11"/>
@@ -7456,7 +7463,7 @@
       </c>
       <c r="R89" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd87:  Temp = 14'b10100000110110;</v>
+        <v>"W":  Segments_o = 14'b10100000110110;</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" si="11"/>
@@ -7535,7 +7542,7 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd88:  Temp = 14'b10101010000000;</v>
+        <v>"X":  Segments_o = 14'b10101010000000;</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" si="11"/>
@@ -7614,7 +7621,7 @@
       </c>
       <c r="R91" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd89:  Temp = 14'b01001010000000;</v>
+        <v>"Y":  Segments_o = 14'b01001010000000;</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" si="11"/>
@@ -7693,7 +7700,7 @@
       </c>
       <c r="R92" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd90:  Temp = 14'b00101000001001;</v>
+        <v>"Z":  Segments_o = 14'b00101000001001;</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" si="11"/>
@@ -7772,7 +7779,7 @@
       </c>
       <c r="R93" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd91:  Temp = 14'b00000000000001;</v>
+        <v>"[":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="11"/>
@@ -7851,7 +7858,7 @@
       </c>
       <c r="R94" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd92:  Temp = 14'b00000000000010;</v>
+        <v>"\":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X94" t="str">
         <f t="shared" si="11"/>
@@ -7930,7 +7937,7 @@
       </c>
       <c r="R95" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd93:  Temp = 14'b00000000000100;</v>
+        <v>"]":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X95" t="str">
         <f t="shared" si="11"/>
@@ -8009,7 +8016,7 @@
       </c>
       <c r="R96" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd94:  Temp = 14'b00000000001000;</v>
+        <v>"^":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X96" t="str">
         <f t="shared" si="11"/>
@@ -8088,7 +8095,7 @@
       </c>
       <c r="R97" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd95:  Temp = 14'b00000000010000;</v>
+        <v>"_":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X97" t="str">
         <f t="shared" si="11"/>
@@ -8167,7 +8174,7 @@
       </c>
       <c r="R98" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd96:  Temp = 14'b00000000100000;</v>
+        <v>"`":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X98" t="str">
         <f t="shared" si="11"/>
@@ -8246,7 +8253,7 @@
       </c>
       <c r="R99" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd97:  Temp = 14'b00000001000000;</v>
+        <v>"a":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X99" t="str">
         <f t="shared" si="11"/>
@@ -8325,7 +8332,7 @@
       </c>
       <c r="R100" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd98:  Temp = 14'b00000010000000;</v>
+        <v>"b":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X100" t="str">
         <f t="shared" si="11"/>
@@ -8404,7 +8411,7 @@
       </c>
       <c r="R101" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd99:  Temp = 14'b00000100000000;</v>
+        <v>"c":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X101" t="str">
         <f t="shared" si="11"/>
@@ -8483,7 +8490,7 @@
       </c>
       <c r="R102" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd100:  Temp = 14'b00001000000000;</v>
+        <v>"d":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X102" t="str">
         <f t="shared" si="11"/>
@@ -8562,7 +8569,7 @@
       </c>
       <c r="R103" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd101:  Temp = 14'b00010000000000;</v>
+        <v>"e":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X103" t="str">
         <f t="shared" si="11"/>
@@ -8641,7 +8648,7 @@
       </c>
       <c r="R104" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd102:  Temp = 14'b00100000000000;</v>
+        <v>"f":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X104" t="str">
         <f t="shared" si="11"/>
@@ -8720,7 +8727,7 @@
       </c>
       <c r="R105" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd103:  Temp = 14'b01000000000000;</v>
+        <v>"g":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X105" t="str">
         <f t="shared" si="11"/>
@@ -8799,7 +8806,7 @@
       </c>
       <c r="R106" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd104:  Temp = 14'b10000000000000;</v>
+        <v>"h":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X106" t="str">
         <f t="shared" si="11"/>
@@ -8878,7 +8885,7 @@
       </c>
       <c r="R107" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd105:  Temp = 14'b00000000000001;</v>
+        <v>"i":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X107" t="str">
         <f t="shared" si="11"/>
@@ -8957,7 +8964,7 @@
       </c>
       <c r="R108" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd106:  Temp = 14'b00000000000010;</v>
+        <v>"j":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X108" t="str">
         <f t="shared" si="11"/>
@@ -9036,7 +9043,7 @@
       </c>
       <c r="R109" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd107:  Temp = 14'b00000000000100;</v>
+        <v>"k":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X109" t="str">
         <f t="shared" si="11"/>
@@ -9115,7 +9122,7 @@
       </c>
       <c r="R110" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd108:  Temp = 14'b00000000001000;</v>
+        <v>"l":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X110" t="str">
         <f t="shared" si="11"/>
@@ -9194,7 +9201,7 @@
       </c>
       <c r="R111" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd109:  Temp = 14'b00000000010000;</v>
+        <v>"m":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X111" t="str">
         <f t="shared" si="11"/>
@@ -9273,7 +9280,7 @@
       </c>
       <c r="R112" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd110:  Temp = 14'b00000000100000;</v>
+        <v>"n":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X112" t="str">
         <f t="shared" si="11"/>
@@ -9352,7 +9359,7 @@
       </c>
       <c r="R113" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd111:  Temp = 14'b00000001000000;</v>
+        <v>"o":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X113" t="str">
         <f t="shared" si="11"/>
@@ -9431,7 +9438,7 @@
       </c>
       <c r="R114" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd112:  Temp = 14'b00000010000000;</v>
+        <v>"p":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X114" t="str">
         <f t="shared" si="11"/>
@@ -9510,7 +9517,7 @@
       </c>
       <c r="R115" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd113:  Temp = 14'b00000100000000;</v>
+        <v>"q":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X115" t="str">
         <f t="shared" si="11"/>
@@ -9589,7 +9596,7 @@
       </c>
       <c r="R116" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd114:  Temp = 14'b00001000000000;</v>
+        <v>"r":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X116" t="str">
         <f t="shared" si="11"/>
@@ -9668,7 +9675,7 @@
       </c>
       <c r="R117" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd115:  Temp = 14'b00010000000000;</v>
+        <v>"s":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X117" t="str">
         <f t="shared" si="11"/>
@@ -9747,7 +9754,7 @@
       </c>
       <c r="R118" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd116:  Temp = 14'b00100000000000;</v>
+        <v>"t":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X118" t="str">
         <f t="shared" si="11"/>
@@ -9826,7 +9833,7 @@
       </c>
       <c r="R119" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd117:  Temp = 14'b01000000000000;</v>
+        <v>"u":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X119" t="str">
         <f t="shared" si="11"/>
@@ -9905,7 +9912,7 @@
       </c>
       <c r="R120" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd118:  Temp = 14'b10000000000000;</v>
+        <v>"v":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X120" t="str">
         <f t="shared" si="11"/>
@@ -9984,7 +9991,7 @@
       </c>
       <c r="R121" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd119:  Temp = 14'b00000000000001;</v>
+        <v>"w":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X121" t="str">
         <f t="shared" si="11"/>
@@ -10063,7 +10070,7 @@
       </c>
       <c r="R122" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd120:  Temp = 14'b00000000000010;</v>
+        <v>"x":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X122" t="str">
         <f t="shared" si="11"/>
@@ -10142,7 +10149,7 @@
       </c>
       <c r="R123" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd121:  Temp = 14'b00000000000100;</v>
+        <v>"y":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X123" t="str">
         <f t="shared" si="11"/>
@@ -10221,7 +10228,7 @@
       </c>
       <c r="R124" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd122:  Temp = 14'b00000000001000;</v>
+        <v>"z":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X124" t="str">
         <f t="shared" si="11"/>
@@ -10300,7 +10307,7 @@
       </c>
       <c r="R125" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd123:  Temp = 14'b00000000010000;</v>
+        <v>"{":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X125" t="str">
         <f t="shared" si="11"/>
@@ -10379,7 +10386,7 @@
       </c>
       <c r="R126" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd124:  Temp = 14'b00000000100000;</v>
+        <v>"|":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X126" t="str">
         <f t="shared" si="11"/>
@@ -10458,7 +10465,7 @@
       </c>
       <c r="R127" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd125:  Temp = 14'b00000001000000;</v>
+        <v>"}":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X127" t="str">
         <f t="shared" si="11"/>
@@ -10537,7 +10544,7 @@
       </c>
       <c r="R128" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd126:  Temp = 14'b00000010000000;</v>
+        <v>"~":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X128" t="str">
         <f t="shared" si="11"/>
@@ -10616,7 +10623,7 @@
       </c>
       <c r="R129" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd127:  Temp = 14'b00000100000000;</v>
+        <v>"":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X129" t="str">
         <f t="shared" si="11"/>
@@ -10695,7 +10702,7 @@
       </c>
       <c r="R130" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    8'd128:  Temp = 14'b00001000000000;</v>
+        <v>"€":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X130" t="str">
         <f t="shared" si="11"/>
@@ -10773,8 +10780,8 @@
         <v>00010000000000</v>
       </c>
       <c r="R131" t="str">
-        <f t="shared" ref="R131:R194" si="18">"    8'd"&amp;A131&amp;":  Temp = 14'b"&amp;Q131&amp;";"</f>
-        <v xml:space="preserve">    8'd129:  Temp = 14'b00010000000000;</v>
+        <f t="shared" ref="R131:R194" si="18">$R$1&amp;B131&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q131&amp;";"</f>
+        <v>"":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X131" t="str">
         <f t="shared" ref="X131:X194" si="19">BIN2HEX(VALUE(P131&amp;O131),1)</f>
@@ -10853,7 +10860,7 @@
       </c>
       <c r="R132" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd130:  Temp = 14'b00100000000000;</v>
+        <v>"‚":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X132" t="str">
         <f t="shared" si="19"/>
@@ -10932,7 +10939,7 @@
       </c>
       <c r="R133" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd131:  Temp = 14'b01000000000000;</v>
+        <v>"":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X133" t="str">
         <f t="shared" si="19"/>
@@ -11011,7 +11018,7 @@
       </c>
       <c r="R134" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd132:  Temp = 14'b10000000000000;</v>
+        <v>"„":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X134" t="str">
         <f t="shared" si="19"/>
@@ -11090,7 +11097,7 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd133:  Temp = 14'b00000000000001;</v>
+        <v>"…":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X135" t="str">
         <f t="shared" si="19"/>
@@ -11169,7 +11176,7 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd134:  Temp = 14'b00000000000010;</v>
+        <v>"†":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X136" t="str">
         <f t="shared" si="19"/>
@@ -11248,7 +11255,7 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd135:  Temp = 14'b00000000000100;</v>
+        <v>"‡":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X137" t="str">
         <f t="shared" si="19"/>
@@ -11327,7 +11334,7 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd136:  Temp = 14'b00000000001000;</v>
+        <v>"":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X138" t="str">
         <f t="shared" si="19"/>
@@ -11406,7 +11413,7 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd137:  Temp = 14'b00000000010000;</v>
+        <v>"‰":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X139" t="str">
         <f t="shared" si="19"/>
@@ -11485,7 +11492,7 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd138:  Temp = 14'b00000000100000;</v>
+        <v>"Š":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X140" t="str">
         <f t="shared" si="19"/>
@@ -11564,7 +11571,7 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd139:  Temp = 14'b00000001000000;</v>
+        <v>"‹":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X141" t="str">
         <f t="shared" si="19"/>
@@ -11643,7 +11650,7 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd140:  Temp = 14'b00000010000000;</v>
+        <v>"Ś":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X142" t="str">
         <f t="shared" si="19"/>
@@ -11722,7 +11729,7 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd141:  Temp = 14'b00000100000000;</v>
+        <v>"Ť":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X143" t="str">
         <f t="shared" si="19"/>
@@ -11801,7 +11808,7 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd142:  Temp = 14'b00001000000000;</v>
+        <v>"Ž":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X144" t="str">
         <f t="shared" si="19"/>
@@ -11880,7 +11887,7 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd143:  Temp = 14'b00010000000000;</v>
+        <v>"Ź":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X145" t="str">
         <f t="shared" si="19"/>
@@ -11959,7 +11966,7 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd144:  Temp = 14'b00100000000000;</v>
+        <v>"":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X146" t="str">
         <f t="shared" si="19"/>
@@ -12038,7 +12045,7 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd145:  Temp = 14'b01000000000000;</v>
+        <v>"‘":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X147" t="str">
         <f t="shared" si="19"/>
@@ -12117,7 +12124,7 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd146:  Temp = 14'b10000000000000;</v>
+        <v>"’":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X148" t="str">
         <f t="shared" si="19"/>
@@ -12196,7 +12203,7 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd147:  Temp = 14'b00000000000001;</v>
+        <v>"“":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X149" t="str">
         <f t="shared" si="19"/>
@@ -12275,7 +12282,7 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd148:  Temp = 14'b00000000000010;</v>
+        <v>"”":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X150" t="str">
         <f t="shared" si="19"/>
@@ -12354,7 +12361,7 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd149:  Temp = 14'b00000000000100;</v>
+        <v>"•":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X151" t="str">
         <f t="shared" si="19"/>
@@ -12433,7 +12440,7 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd150:  Temp = 14'b00000000001000;</v>
+        <v>"–":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X152" t="str">
         <f t="shared" si="19"/>
@@ -12512,7 +12519,7 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd151:  Temp = 14'b00000000010000;</v>
+        <v>"—":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X153" t="str">
         <f t="shared" si="19"/>
@@ -12591,7 +12598,7 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd152:  Temp = 14'b00000000100000;</v>
+        <v>"":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X154" t="str">
         <f t="shared" si="19"/>
@@ -12670,7 +12677,7 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd153:  Temp = 14'b00000001000000;</v>
+        <v>"™":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X155" t="str">
         <f t="shared" si="19"/>
@@ -12749,7 +12756,7 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd154:  Temp = 14'b00000010000000;</v>
+        <v>"š":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X156" t="str">
         <f t="shared" si="19"/>
@@ -12828,7 +12835,7 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd155:  Temp = 14'b00000100000000;</v>
+        <v>"›":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X157" t="str">
         <f t="shared" si="19"/>
@@ -12907,7 +12914,7 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd156:  Temp = 14'b00001000000000;</v>
+        <v>"ś":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X158" t="str">
         <f t="shared" si="19"/>
@@ -12986,7 +12993,7 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd157:  Temp = 14'b00010000000000;</v>
+        <v>"ť":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X159" t="str">
         <f t="shared" si="19"/>
@@ -13065,7 +13072,7 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd158:  Temp = 14'b00100000000000;</v>
+        <v>"ž":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X160" t="str">
         <f t="shared" si="19"/>
@@ -13144,7 +13151,7 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd159:  Temp = 14'b01000000000000;</v>
+        <v>"ź":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X161" t="str">
         <f t="shared" si="19"/>
@@ -13223,7 +13230,7 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd160:  Temp = 14'b10000000000000;</v>
+        <v>" ":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X162" t="str">
         <f t="shared" si="19"/>
@@ -13302,7 +13309,7 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd161:  Temp = 14'b00000000000001;</v>
+        <v>"ˇ":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X163" t="str">
         <f t="shared" si="19"/>
@@ -13381,7 +13388,7 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd162:  Temp = 14'b00000000000010;</v>
+        <v>"˘":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X164" t="str">
         <f t="shared" si="19"/>
@@ -13460,7 +13467,7 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd163:  Temp = 14'b00000000000100;</v>
+        <v>"Ł":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X165" t="str">
         <f t="shared" si="19"/>
@@ -13539,7 +13546,7 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd164:  Temp = 14'b00000000001000;</v>
+        <v>"¤":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X166" t="str">
         <f t="shared" si="19"/>
@@ -13618,7 +13625,7 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd165:  Temp = 14'b00000000010000;</v>
+        <v>"Ą":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X167" t="str">
         <f t="shared" si="19"/>
@@ -13697,7 +13704,7 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd166:  Temp = 14'b00000000100000;</v>
+        <v>"¦":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X168" t="str">
         <f t="shared" si="19"/>
@@ -13776,7 +13783,7 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd167:  Temp = 14'b00000001000000;</v>
+        <v>"§":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X169" t="str">
         <f t="shared" si="19"/>
@@ -13855,7 +13862,7 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd168:  Temp = 14'b00000010000000;</v>
+        <v>"¨":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X170" t="str">
         <f t="shared" si="19"/>
@@ -13934,7 +13941,7 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd169:  Temp = 14'b00000100000000;</v>
+        <v>"©":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X171" t="str">
         <f t="shared" si="19"/>
@@ -14013,7 +14020,7 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd170:  Temp = 14'b00001000000000;</v>
+        <v>"Ş":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X172" t="str">
         <f t="shared" si="19"/>
@@ -14092,7 +14099,7 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd171:  Temp = 14'b00010000000000;</v>
+        <v>"«":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X173" t="str">
         <f t="shared" si="19"/>
@@ -14171,7 +14178,7 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd172:  Temp = 14'b00100000000000;</v>
+        <v>"¬":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X174" t="str">
         <f t="shared" si="19"/>
@@ -14250,7 +14257,7 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd173:  Temp = 14'b01000000000000;</v>
+        <v>"­":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X175" t="str">
         <f t="shared" si="19"/>
@@ -14329,7 +14336,7 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd174:  Temp = 14'b10000000000000;</v>
+        <v>"®":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X176" t="str">
         <f t="shared" si="19"/>
@@ -14408,7 +14415,7 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd175:  Temp = 14'b00000000000001;</v>
+        <v>"Ż":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X177" t="str">
         <f t="shared" si="19"/>
@@ -14487,7 +14494,7 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd176:  Temp = 14'b00000000000010;</v>
+        <v>"°":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X178" t="str">
         <f t="shared" si="19"/>
@@ -14566,7 +14573,7 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd177:  Temp = 14'b00000000000100;</v>
+        <v>"±":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X179" t="str">
         <f t="shared" si="19"/>
@@ -14645,7 +14652,7 @@
       </c>
       <c r="R180" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd178:  Temp = 14'b00000000001000;</v>
+        <v>"˛":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X180" t="str">
         <f t="shared" si="19"/>
@@ -14724,7 +14731,7 @@
       </c>
       <c r="R181" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd179:  Temp = 14'b00000000010000;</v>
+        <v>"ł":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X181" t="str">
         <f t="shared" si="19"/>
@@ -14803,7 +14810,7 @@
       </c>
       <c r="R182" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd180:  Temp = 14'b00000000100000;</v>
+        <v>"´":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X182" t="str">
         <f t="shared" si="19"/>
@@ -14882,7 +14889,7 @@
       </c>
       <c r="R183" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd181:  Temp = 14'b00000001000000;</v>
+        <v>"µ":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X183" t="str">
         <f t="shared" si="19"/>
@@ -14961,7 +14968,7 @@
       </c>
       <c r="R184" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd182:  Temp = 14'b00000010000000;</v>
+        <v>"¶":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X184" t="str">
         <f t="shared" si="19"/>
@@ -15040,7 +15047,7 @@
       </c>
       <c r="R185" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd183:  Temp = 14'b00000100000000;</v>
+        <v>"·":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X185" t="str">
         <f t="shared" si="19"/>
@@ -15119,7 +15126,7 @@
       </c>
       <c r="R186" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd184:  Temp = 14'b00001000000000;</v>
+        <v>"¸":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X186" t="str">
         <f t="shared" si="19"/>
@@ -15198,7 +15205,7 @@
       </c>
       <c r="R187" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd185:  Temp = 14'b00010000000000;</v>
+        <v>"ą":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X187" t="str">
         <f t="shared" si="19"/>
@@ -15277,7 +15284,7 @@
       </c>
       <c r="R188" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd186:  Temp = 14'b00100000000000;</v>
+        <v>"ş":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X188" t="str">
         <f t="shared" si="19"/>
@@ -15356,7 +15363,7 @@
       </c>
       <c r="R189" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd187:  Temp = 14'b01000000000000;</v>
+        <v>"»":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X189" t="str">
         <f t="shared" si="19"/>
@@ -15435,7 +15442,7 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd188:  Temp = 14'b10000000000000;</v>
+        <v>"Ľ":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X190" t="str">
         <f t="shared" si="19"/>
@@ -15514,7 +15521,7 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd189:  Temp = 14'b00000000000001;</v>
+        <v>"˝":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X191" t="str">
         <f t="shared" si="19"/>
@@ -15593,7 +15600,7 @@
       </c>
       <c r="R192" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd190:  Temp = 14'b00000000000010;</v>
+        <v>"ľ":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X192" t="str">
         <f t="shared" si="19"/>
@@ -15672,7 +15679,7 @@
       </c>
       <c r="R193" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd191:  Temp = 14'b00000000000100;</v>
+        <v>"ż":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X193" t="str">
         <f t="shared" si="19"/>
@@ -15751,7 +15758,7 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    8'd192:  Temp = 14'b00000000001000;</v>
+        <v>"Ŕ":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X194" t="str">
         <f t="shared" si="19"/>
@@ -15829,8 +15836,8 @@
         <v>00000000010000</v>
       </c>
       <c r="R195" t="str">
-        <f t="shared" ref="R195:R257" si="26">"    8'd"&amp;A195&amp;":  Temp = 14'b"&amp;Q195&amp;";"</f>
-        <v xml:space="preserve">    8'd193:  Temp = 14'b00000000010000;</v>
+        <f t="shared" ref="R195:R257" si="26">$R$1&amp;B195&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q195&amp;";"</f>
+        <v>"Á":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X195" t="str">
         <f t="shared" ref="X195:X257" si="27">BIN2HEX(VALUE(P195&amp;O195),1)</f>
@@ -15909,7 +15916,7 @@
       </c>
       <c r="R196" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd194:  Temp = 14'b00000000100000;</v>
+        <v>"Â":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X196" t="str">
         <f t="shared" si="27"/>
@@ -15988,7 +15995,7 @@
       </c>
       <c r="R197" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd195:  Temp = 14'b00000001000000;</v>
+        <v>"Ă":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X197" t="str">
         <f t="shared" si="27"/>
@@ -16067,7 +16074,7 @@
       </c>
       <c r="R198" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd196:  Temp = 14'b00000010000000;</v>
+        <v>"Ä":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X198" t="str">
         <f t="shared" si="27"/>
@@ -16146,7 +16153,7 @@
       </c>
       <c r="R199" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd197:  Temp = 14'b00000100000000;</v>
+        <v>"Ĺ":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X199" t="str">
         <f t="shared" si="27"/>
@@ -16225,7 +16232,7 @@
       </c>
       <c r="R200" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd198:  Temp = 14'b00001000000000;</v>
+        <v>"Ć":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X200" t="str">
         <f t="shared" si="27"/>
@@ -16304,7 +16311,7 @@
       </c>
       <c r="R201" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd199:  Temp = 14'b00010000000000;</v>
+        <v>"Ç":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X201" t="str">
         <f t="shared" si="27"/>
@@ -16383,7 +16390,7 @@
       </c>
       <c r="R202" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd200:  Temp = 14'b00100000000000;</v>
+        <v>"Č":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X202" t="str">
         <f t="shared" si="27"/>
@@ -16462,7 +16469,7 @@
       </c>
       <c r="R203" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd201:  Temp = 14'b01000000000000;</v>
+        <v>"É":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X203" t="str">
         <f t="shared" si="27"/>
@@ -16541,7 +16548,7 @@
       </c>
       <c r="R204" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd202:  Temp = 14'b10000000000000;</v>
+        <v>"Ę":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X204" t="str">
         <f t="shared" si="27"/>
@@ -16620,7 +16627,7 @@
       </c>
       <c r="R205" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd203:  Temp = 14'b00000000000001;</v>
+        <v>"Ë":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X205" t="str">
         <f t="shared" si="27"/>
@@ -16699,7 +16706,7 @@
       </c>
       <c r="R206" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd204:  Temp = 14'b00000000000010;</v>
+        <v>"Ě":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X206" t="str">
         <f t="shared" si="27"/>
@@ -16778,7 +16785,7 @@
       </c>
       <c r="R207" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd205:  Temp = 14'b00000000000100;</v>
+        <v>"Í":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X207" t="str">
         <f t="shared" si="27"/>
@@ -16857,7 +16864,7 @@
       </c>
       <c r="R208" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd206:  Temp = 14'b00000000001000;</v>
+        <v>"Î":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X208" t="str">
         <f t="shared" si="27"/>
@@ -16936,7 +16943,7 @@
       </c>
       <c r="R209" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd207:  Temp = 14'b00000000010000;</v>
+        <v>"Ď":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X209" t="str">
         <f t="shared" si="27"/>
@@ -17015,7 +17022,7 @@
       </c>
       <c r="R210" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd208:  Temp = 14'b00000000100000;</v>
+        <v>"Đ":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X210" t="str">
         <f t="shared" si="27"/>
@@ -17094,7 +17101,7 @@
       </c>
       <c r="R211" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd209:  Temp = 14'b00000001000000;</v>
+        <v>"Ń":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X211" t="str">
         <f t="shared" si="27"/>
@@ -17173,7 +17180,7 @@
       </c>
       <c r="R212" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd210:  Temp = 14'b00000010000000;</v>
+        <v>"Ň":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X212" t="str">
         <f t="shared" si="27"/>
@@ -17252,7 +17259,7 @@
       </c>
       <c r="R213" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd211:  Temp = 14'b00000100000000;</v>
+        <v>"Ó":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X213" t="str">
         <f t="shared" si="27"/>
@@ -17331,7 +17338,7 @@
       </c>
       <c r="R214" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd212:  Temp = 14'b00001000000000;</v>
+        <v>"Ô":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X214" t="str">
         <f t="shared" si="27"/>
@@ -17410,7 +17417,7 @@
       </c>
       <c r="R215" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd213:  Temp = 14'b00010000000000;</v>
+        <v>"Ő":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X215" t="str">
         <f t="shared" si="27"/>
@@ -17489,7 +17496,7 @@
       </c>
       <c r="R216" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd214:  Temp = 14'b00100000000000;</v>
+        <v>"Ö":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X216" t="str">
         <f t="shared" si="27"/>
@@ -17568,7 +17575,7 @@
       </c>
       <c r="R217" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd215:  Temp = 14'b01000000000000;</v>
+        <v>"×":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X217" t="str">
         <f t="shared" si="27"/>
@@ -17647,7 +17654,7 @@
       </c>
       <c r="R218" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd216:  Temp = 14'b10000000000000;</v>
+        <v>"Ř":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X218" t="str">
         <f t="shared" si="27"/>
@@ -17726,7 +17733,7 @@
       </c>
       <c r="R219" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd217:  Temp = 14'b00000000000001;</v>
+        <v>"Ů":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X219" t="str">
         <f t="shared" si="27"/>
@@ -17805,7 +17812,7 @@
       </c>
       <c r="R220" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd218:  Temp = 14'b00000000000010;</v>
+        <v>"Ú":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X220" t="str">
         <f t="shared" si="27"/>
@@ -17884,7 +17891,7 @@
       </c>
       <c r="R221" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd219:  Temp = 14'b00000000000100;</v>
+        <v>"Ű":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X221" t="str">
         <f t="shared" si="27"/>
@@ -17963,7 +17970,7 @@
       </c>
       <c r="R222" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd220:  Temp = 14'b00000000001000;</v>
+        <v>"Ü":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X222" t="str">
         <f t="shared" si="27"/>
@@ -18042,7 +18049,7 @@
       </c>
       <c r="R223" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd221:  Temp = 14'b00000000010000;</v>
+        <v>"Ý":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X223" t="str">
         <f t="shared" si="27"/>
@@ -18121,7 +18128,7 @@
       </c>
       <c r="R224" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd222:  Temp = 14'b00000000100000;</v>
+        <v>"Ţ":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X224" t="str">
         <f t="shared" si="27"/>
@@ -18200,7 +18207,7 @@
       </c>
       <c r="R225" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd223:  Temp = 14'b00000001000000;</v>
+        <v>"ß":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X225" t="str">
         <f t="shared" si="27"/>
@@ -18279,7 +18286,7 @@
       </c>
       <c r="R226" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd224:  Temp = 14'b00000010000000;</v>
+        <v>"ŕ":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X226" t="str">
         <f t="shared" si="27"/>
@@ -18358,7 +18365,7 @@
       </c>
       <c r="R227" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd225:  Temp = 14'b00000100000000;</v>
+        <v>"á":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X227" t="str">
         <f t="shared" si="27"/>
@@ -18437,7 +18444,7 @@
       </c>
       <c r="R228" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd226:  Temp = 14'b00001000000000;</v>
+        <v>"â":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X228" t="str">
         <f t="shared" si="27"/>
@@ -18516,7 +18523,7 @@
       </c>
       <c r="R229" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd227:  Temp = 14'b00010000000000;</v>
+        <v>"ă":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X229" t="str">
         <f t="shared" si="27"/>
@@ -18595,7 +18602,7 @@
       </c>
       <c r="R230" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd228:  Temp = 14'b00100000000000;</v>
+        <v>"ä":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X230" t="str">
         <f t="shared" si="27"/>
@@ -18674,7 +18681,7 @@
       </c>
       <c r="R231" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd229:  Temp = 14'b01000000000000;</v>
+        <v>"ĺ":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X231" t="str">
         <f t="shared" si="27"/>
@@ -18753,7 +18760,7 @@
       </c>
       <c r="R232" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd230:  Temp = 14'b10000000000000;</v>
+        <v>"ć":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X232" t="str">
         <f t="shared" si="27"/>
@@ -18832,7 +18839,7 @@
       </c>
       <c r="R233" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd231:  Temp = 14'b00000000000001;</v>
+        <v>"ç":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X233" t="str">
         <f t="shared" si="27"/>
@@ -18911,7 +18918,7 @@
       </c>
       <c r="R234" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd232:  Temp = 14'b00000000000010;</v>
+        <v>"č":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X234" t="str">
         <f t="shared" si="27"/>
@@ -18990,7 +18997,7 @@
       </c>
       <c r="R235" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd233:  Temp = 14'b00000000000100;</v>
+        <v>"é":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X235" t="str">
         <f t="shared" si="27"/>
@@ -19069,7 +19076,7 @@
       </c>
       <c r="R236" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd234:  Temp = 14'b00000000001000;</v>
+        <v>"ę":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X236" t="str">
         <f t="shared" si="27"/>
@@ -19148,7 +19155,7 @@
       </c>
       <c r="R237" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd235:  Temp = 14'b00000000010000;</v>
+        <v>"ë":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X237" t="str">
         <f t="shared" si="27"/>
@@ -19227,7 +19234,7 @@
       </c>
       <c r="R238" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd236:  Temp = 14'b00000000100000;</v>
+        <v>"ě":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X238" t="str">
         <f t="shared" si="27"/>
@@ -19306,7 +19313,7 @@
       </c>
       <c r="R239" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd237:  Temp = 14'b00000001000000;</v>
+        <v>"í":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X239" t="str">
         <f t="shared" si="27"/>
@@ -19385,7 +19392,7 @@
       </c>
       <c r="R240" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd238:  Temp = 14'b00000010000000;</v>
+        <v>"î":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X240" t="str">
         <f t="shared" si="27"/>
@@ -19464,7 +19471,7 @@
       </c>
       <c r="R241" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd239:  Temp = 14'b00000100000000;</v>
+        <v>"ď":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X241" t="str">
         <f t="shared" si="27"/>
@@ -19543,7 +19550,7 @@
       </c>
       <c r="R242" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd240:  Temp = 14'b00001000000000;</v>
+        <v>"đ":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X242" t="str">
         <f t="shared" si="27"/>
@@ -19622,7 +19629,7 @@
       </c>
       <c r="R243" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd241:  Temp = 14'b00010000000000;</v>
+        <v>"ń":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X243" t="str">
         <f t="shared" si="27"/>
@@ -19701,7 +19708,7 @@
       </c>
       <c r="R244" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd242:  Temp = 14'b00100000000000;</v>
+        <v>"ň":  Segments_o = 14'b00100000000000;</v>
       </c>
       <c r="X244" t="str">
         <f t="shared" si="27"/>
@@ -19780,7 +19787,7 @@
       </c>
       <c r="R245" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd243:  Temp = 14'b01000000000000;</v>
+        <v>"ó":  Segments_o = 14'b01000000000000;</v>
       </c>
       <c r="X245" t="str">
         <f t="shared" si="27"/>
@@ -19859,7 +19866,7 @@
       </c>
       <c r="R246" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd244:  Temp = 14'b10000000000000;</v>
+        <v>"ô":  Segments_o = 14'b10000000000000;</v>
       </c>
       <c r="X246" t="str">
         <f t="shared" si="27"/>
@@ -19938,7 +19945,7 @@
       </c>
       <c r="R247" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd245:  Temp = 14'b00000000000001;</v>
+        <v>"ő":  Segments_o = 14'b00000000000001;</v>
       </c>
       <c r="X247" t="str">
         <f t="shared" si="27"/>
@@ -20017,7 +20024,7 @@
       </c>
       <c r="R248" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd246:  Temp = 14'b00000000000010;</v>
+        <v>"ö":  Segments_o = 14'b00000000000010;</v>
       </c>
       <c r="X248" t="str">
         <f t="shared" si="27"/>
@@ -20096,7 +20103,7 @@
       </c>
       <c r="R249" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd247:  Temp = 14'b00000000000100;</v>
+        <v>"÷":  Segments_o = 14'b00000000000100;</v>
       </c>
       <c r="X249" t="str">
         <f t="shared" si="27"/>
@@ -20175,7 +20182,7 @@
       </c>
       <c r="R250" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd248:  Temp = 14'b00000000001000;</v>
+        <v>"ř":  Segments_o = 14'b00000000001000;</v>
       </c>
       <c r="X250" t="str">
         <f t="shared" si="27"/>
@@ -20254,7 +20261,7 @@
       </c>
       <c r="R251" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd249:  Temp = 14'b00000000010000;</v>
+        <v>"ů":  Segments_o = 14'b00000000010000;</v>
       </c>
       <c r="X251" t="str">
         <f t="shared" si="27"/>
@@ -20333,7 +20340,7 @@
       </c>
       <c r="R252" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd250:  Temp = 14'b00000000100000;</v>
+        <v>"ú":  Segments_o = 14'b00000000100000;</v>
       </c>
       <c r="X252" t="str">
         <f t="shared" si="27"/>
@@ -20412,7 +20419,7 @@
       </c>
       <c r="R253" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd251:  Temp = 14'b00000001000000;</v>
+        <v>"ű":  Segments_o = 14'b00000001000000;</v>
       </c>
       <c r="X253" t="str">
         <f t="shared" si="27"/>
@@ -20491,7 +20498,7 @@
       </c>
       <c r="R254" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd252:  Temp = 14'b00000010000000;</v>
+        <v>"ü":  Segments_o = 14'b00000010000000;</v>
       </c>
       <c r="X254" t="str">
         <f t="shared" si="27"/>
@@ -20570,7 +20577,7 @@
       </c>
       <c r="R255" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd253:  Temp = 14'b00000100000000;</v>
+        <v>"ý":  Segments_o = 14'b00000100000000;</v>
       </c>
       <c r="X255" t="str">
         <f t="shared" si="27"/>
@@ -20649,7 +20656,7 @@
       </c>
       <c r="R256" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd254:  Temp = 14'b00001000000000;</v>
+        <v>"ţ":  Segments_o = 14'b00001000000000;</v>
       </c>
       <c r="X256" t="str">
         <f t="shared" si="27"/>
@@ -20728,7 +20735,7 @@
       </c>
       <c r="R257" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    8'd255:  Temp = 14'b00010000000000;</v>
+        <v>"˙":  Segments_o = 14'b00010000000000;</v>
       </c>
       <c r="X257" t="str">
         <f t="shared" si="27"/>

--- a/decoder_14seg/bitmaps.xlsx
+++ b/decoder_14seg/bitmaps.xlsx
@@ -461,10 +461,10 @@
   <dimension ref="A1:AB257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1:P1048576"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomRight" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -587,7 +587,7 @@
         <v>00000000000000</v>
       </c>
       <c r="R2" t="e">
-        <f>$R$1&amp;B2&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q2&amp;";"</f>
+        <f>$R$1&amp;B2&amp;$R$1&amp;":  Segments_o &lt;= 14'b"&amp;Q2&amp;";"</f>
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="str">
@@ -666,8 +666,8 @@
         <v>01010101010101</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R66" si="2">$R$1&amp;B3&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q3&amp;";"</f>
-        <v>"_x0001_":  Segments_o = 14'b01010101010101;</v>
+        <f t="shared" ref="R3:R66" si="2">$R$1&amp;B3&amp;$R$1&amp;":  Segments_o &lt;= 14'b"&amp;Q3&amp;";"</f>
+        <v>"_x0001_":  Segments_o &lt;= 14'b01010101010101;</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X66" si="3">BIN2HEX(VALUE(P3&amp;O3),1)</f>
@@ -746,7 +746,7 @@
       </c>
       <c r="R4" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0002_":  Segments_o = 14'b00000000000001;</v>
+        <v>"_x0002_":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="3"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="R5" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0003_":  Segments_o = 14'b00000000000010;</v>
+        <v>"_x0003_":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="3"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="R6" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0004_":  Segments_o = 14'b00000000000100;</v>
+        <v>"_x0004_":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="3"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="R7" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0005_":  Segments_o = 14'b00000000001000;</v>
+        <v>"_x0005_":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="3"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0006_":  Segments_o = 14'b00000000010000;</v>
+        <v>"_x0006_":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="3"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="R9" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0007_":  Segments_o = 14'b00000000100000;</v>
+        <v>"_x0007_":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="3"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="R10" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0008_":  Segments_o = 14'b00000001000000;</v>
+        <v>"_x0008_":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="3"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="2"/>
-        <v>"	":  Segments_o = 14'b00000010000000;</v>
+        <v>"	":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="3"/>
@@ -1380,7 +1380,7 @@
       <c r="R12" t="str">
         <f t="shared" si="2"/>
         <v>"
-":  Segments_o = 14'b00000100000000;</v>
+":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="3"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="R13" t="str">
         <f t="shared" si="2"/>
-        <v>"_x000B_":  Segments_o = 14'b00001000000000;</v>
+        <v>"_x000B_":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="3"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="R14" t="str">
         <f t="shared" si="2"/>
-        <v>"_x000C_":  Segments_o = 14'b00010000000000;</v>
+        <v>"_x000C_":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="3"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" si="2"/>
-        <v>"_x000D_":  Segments_o = 14'b00100000000000;</v>
+        <v>"_x000D_":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="3"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="R16" t="str">
         <f t="shared" si="2"/>
-        <v>"_x000E_":  Segments_o = 14'b01000000000000;</v>
+        <v>"_x000E_":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="3"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" si="2"/>
-        <v>"_x000F_":  Segments_o = 14'b10000000000000;</v>
+        <v>"_x000F_":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="3"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0010_":  Segments_o = 14'b00000000000001;</v>
+        <v>"_x0010_":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="3"/>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="R19" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0011_":  Segments_o = 14'b00000000000010;</v>
+        <v>"_x0011_":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="3"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="R20" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0012_":  Segments_o = 14'b00000000000100;</v>
+        <v>"_x0012_":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="3"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0013_":  Segments_o = 14'b00000000001000;</v>
+        <v>"_x0013_":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="3"/>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="R22" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0014_":  Segments_o = 14'b00000000010000;</v>
+        <v>"_x0014_":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="3"/>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="R23" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0015_":  Segments_o = 14'b00000000100000;</v>
+        <v>"_x0015_":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="3"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="R24" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0016_":  Segments_o = 14'b00000001000000;</v>
+        <v>"_x0016_":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="3"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="R25" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0017_":  Segments_o = 14'b00000010000000;</v>
+        <v>"_x0017_":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" si="3"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="R26" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0018_":  Segments_o = 14'b00000100000000;</v>
+        <v>"_x0018_":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="3"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="R27" t="str">
         <f t="shared" si="2"/>
-        <v>"_x0019_":  Segments_o = 14'b00001000000000;</v>
+        <v>"_x0019_":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="3"/>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="R28" t="str">
         <f t="shared" si="2"/>
-        <v>"_x001A_":  Segments_o = 14'b00010000000000;</v>
+        <v>"_x001A_":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="3"/>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="R29" t="str">
         <f t="shared" si="2"/>
-        <v>"_x001B_":  Segments_o = 14'b00100000000000;</v>
+        <v>"_x001B_":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="3"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="R30" t="str">
         <f t="shared" si="2"/>
-        <v>"_x001C_":  Segments_o = 14'b01000000000000;</v>
+        <v>"_x001C_":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="3"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" si="2"/>
-        <v>"_x001D_":  Segments_o = 14'b10000000000000;</v>
+        <v>"_x001D_":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="3"/>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="R32" t="str">
         <f t="shared" si="2"/>
-        <v>"_x001E_":  Segments_o = 14'b00000000000001;</v>
+        <v>"_x001E_":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="3"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="R33" t="str">
         <f t="shared" si="2"/>
-        <v>"_x001F_":  Segments_o = 14'b00000000000010;</v>
+        <v>"_x001F_":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="3"/>
@@ -3077,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="Q34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00000000000100</v>
+        <v>00000000000000</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="2"/>
-        <v>" ":  Segments_o = 14'b00000000000100;</v>
+        <v>" ":  Segments_o &lt;= 14'b00000000000000;</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="3"/>
@@ -3134,11 +3134,11 @@
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="7"/>
-        <v>0004</v>
+        <v>0000</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" si="2"/>
-        <v>"!":  Segments_o = 14'b01000100001000;</v>
+        <v>"!":  Segments_o &lt;= 14'b01000100001000;</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="3"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="R36" t="str">
         <f t="shared" si="2"/>
-        <v>""":  Segments_o = 14'b00000000100010;</v>
+        <v>""":  Segments_o &lt;= 14'b00000000100010;</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="3"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="R37" t="str">
         <f t="shared" si="2"/>
-        <v>"#":  Segments_o = 14'b11111111111111;</v>
+        <v>"#":  Segments_o &lt;= 14'b11111111111111;</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="3"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" si="2"/>
-        <v>"$":  Segments_o = 14'b01010101101101;</v>
+        <v>"$":  Segments_o &lt;= 14'b01010101101101;</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="3"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="R39" t="str">
         <f t="shared" si="2"/>
-        <v>"%":  Segments_o = 14'b00101000100100;</v>
+        <v>"%":  Segments_o &lt;= 14'b00101000100100;</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="3"/>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" si="2"/>
-        <v>"&amp;":  Segments_o = 14'b11111111111111;</v>
+        <v>"&amp;":  Segments_o &lt;= 14'b11111111111111;</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="3"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" si="2"/>
-        <v>"'":  Segments_o = 14'b00000100000000;</v>
+        <v>"'":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="3"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="R42" t="str">
         <f t="shared" si="2"/>
-        <v>"(":  Segments_o = 14'b10001000000000;</v>
+        <v>"(":  Segments_o &lt;= 14'b10001000000000;</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="3"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" si="2"/>
-        <v>")":  Segments_o = 14'b00100010000000;</v>
+        <v>")":  Segments_o &lt;= 14'b00100010000000;</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="3"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" si="2"/>
-        <v>"*":  Segments_o = 14'b11111111000000;</v>
+        <v>"*":  Segments_o &lt;= 14'b11111111000000;</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="3"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" si="2"/>
-        <v>"+":  Segments_o = 14'b01010101000000;</v>
+        <v>"+":  Segments_o &lt;= 14'b01010101000000;</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" si="3"/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" si="2"/>
-        <v>",":  Segments_o = 14'b00100000000000;</v>
+        <v>",":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" si="3"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" si="2"/>
-        <v>"-":  Segments_o = 14'b00010001000000;</v>
+        <v>"-":  Segments_o &lt;= 14'b00010001000000;</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="3"/>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" si="2"/>
-        <v>".":  Segments_o = 14'b01000000000000;</v>
+        <v>".":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="3"/>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="R49" t="str">
         <f t="shared" si="2"/>
-        <v>"/":  Segments_o = 14'b00101000000000;</v>
+        <v>"/":  Segments_o &lt;= 14'b00101000000000;</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="3"/>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" si="2"/>
-        <v>"0":  Segments_o = 14'b00000000111111;</v>
+        <v>"0":  Segments_o &lt;= 14'b00000000111111;</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="3"/>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" si="2"/>
-        <v>"1":  Segments_o = 14'b00001000000110;</v>
+        <v>"1":  Segments_o &lt;= 14'b00001000000110;</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="3"/>
@@ -4496,7 +4496,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>18</v>
@@ -4505,13 +4505,13 @@
         <v>17</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>18</v>
@@ -4520,13 +4520,13 @@
         <v>18</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>18</v>
@@ -4536,11 +4536,11 @@
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00101000101001</v>
+        <v>00010001011011</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="2"/>
-        <v>"2":  Segments_o = 14'b00101000101001;</v>
+        <v>"2":  Segments_o &lt;= 14'b00010001011011;</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="3"/>
@@ -4548,19 +4548,19 @@
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="4"/>
-        <v>A</v>
+        <v>4</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>B</v>
       </c>
       <c r="AB52" t="str">
         <f t="shared" si="7"/>
-        <v>0A29</v>
+        <v>045B</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" si="2"/>
-        <v>"3":  Segments_o = 14'b00010000001111;</v>
+        <v>"3":  Segments_o &lt;= 14'b00010000001111;</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="3"/>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="R54" t="str">
         <f t="shared" si="2"/>
-        <v>"4":  Segments_o = 14'b00010001100110;</v>
+        <v>"4":  Segments_o &lt;= 14'b00010001100110;</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="3"/>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="R55" t="str">
         <f t="shared" si="2"/>
-        <v>"5":  Segments_o = 14'b00010001101101;</v>
+        <v>"5":  Segments_o &lt;= 14'b00010001101101;</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="3"/>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="R56" t="str">
         <f t="shared" si="2"/>
-        <v>"6":  Segments_o = 14'b00010001111101;</v>
+        <v>"6":  Segments_o &lt;= 14'b00010001111101;</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="3"/>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="R57" t="str">
         <f t="shared" si="2"/>
-        <v>"7":  Segments_o = 14'b01001000000001;</v>
+        <v>"7":  Segments_o &lt;= 14'b01001000000001;</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="3"/>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="R58" t="str">
         <f t="shared" si="2"/>
-        <v>"8":  Segments_o = 14'b00010001111111;</v>
+        <v>"8":  Segments_o &lt;= 14'b00010001111111;</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="3"/>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="R59" t="str">
         <f t="shared" si="2"/>
-        <v>"9":  Segments_o = 14'b00010001101111;</v>
+        <v>"9":  Segments_o &lt;= 14'b00010001101111;</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="R60" t="str">
         <f t="shared" si="2"/>
-        <v>":":  Segments_o = 14'b11111111111111;</v>
+        <v>":":  Segments_o &lt;= 14'b11111111111111;</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="3"/>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="R61" t="str">
         <f t="shared" si="2"/>
-        <v>";":  Segments_o = 14'b11111111111111;</v>
+        <v>";":  Segments_o &lt;= 14'b11111111111111;</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="3"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="R62" t="str">
         <f t="shared" si="2"/>
-        <v>"&lt;":  Segments_o = 14'b10001000000000;</v>
+        <v>"&lt;":  Segments_o &lt;= 14'b10001000000000;</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="3"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
-        <v>"=":  Segments_o = 14'b00010001001000;</v>
+        <v>"=":  Segments_o &lt;= 14'b00010001001000;</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="3"/>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="R64" t="str">
         <f t="shared" si="2"/>
-        <v>"&gt;":  Segments_o = 14'b00100010000000;</v>
+        <v>"&gt;":  Segments_o &lt;= 14'b00100010000000;</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="3"/>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" si="2"/>
-        <v>"?":  Segments_o = 14'b01010000100011;</v>
+        <v>"?":  Segments_o &lt;= 14'b01010000100011;</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" si="3"/>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="R66" t="str">
         <f t="shared" si="2"/>
-        <v>"@":  Segments_o = 14'b00010000111011;</v>
+        <v>"@":  Segments_o &lt;= 14'b00010000111011;</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" si="3"/>
@@ -5724,8 +5724,8 @@
         <v>00010001110111</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ref="R67:R130" si="10">$R$1&amp;B67&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q67&amp;";"</f>
-        <v>"A":  Segments_o = 14'b00010001110111;</v>
+        <f t="shared" ref="R67:R130" si="10">$R$1&amp;B67&amp;$R$1&amp;":  Segments_o &lt;= 14'b"&amp;Q67&amp;";"</f>
+        <v>"A":  Segments_o &lt;= 14'b00010001110111;</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" ref="X67:X130" si="11">BIN2HEX(VALUE(P67&amp;O67),1)</f>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="R68" t="str">
         <f t="shared" si="10"/>
-        <v>"B":  Segments_o = 14'b01010100001111;</v>
+        <v>"B":  Segments_o &lt;= 14'b01010100001111;</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" si="11"/>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="R69" t="str">
         <f t="shared" si="10"/>
-        <v>"C":  Segments_o = 14'b00000000111001;</v>
+        <v>"C":  Segments_o &lt;= 14'b00000000111001;</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="11"/>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="R70" t="str">
         <f t="shared" si="10"/>
-        <v>"D":  Segments_o = 14'b01000100001111;</v>
+        <v>"D":  Segments_o &lt;= 14'b01000100001111;</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="11"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="R71" t="str">
         <f t="shared" si="10"/>
-        <v>"E":  Segments_o = 14'b00000001111001;</v>
+        <v>"E":  Segments_o &lt;= 14'b00000001111001;</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" si="11"/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="R72" t="str">
         <f t="shared" si="10"/>
-        <v>"F":  Segments_o = 14'b00000001110001;</v>
+        <v>"F":  Segments_o &lt;= 14'b00000001110001;</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="11"/>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="R73" t="str">
         <f t="shared" si="10"/>
-        <v>"G":  Segments_o = 14'b00010000111101;</v>
+        <v>"G":  Segments_o &lt;= 14'b00010000111101;</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" si="11"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="R74" t="str">
         <f t="shared" si="10"/>
-        <v>"H":  Segments_o = 14'b00010001110110;</v>
+        <v>"H":  Segments_o &lt;= 14'b00010001110110;</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" si="11"/>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" si="10"/>
-        <v>"I":  Segments_o = 14'b01000100001001;</v>
+        <v>"I":  Segments_o &lt;= 14'b01000100001001;</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" si="11"/>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" si="10"/>
-        <v>"J":  Segments_o = 14'b00000000011110;</v>
+        <v>"J":  Segments_o &lt;= 14'b00000000011110;</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" si="11"/>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="R77" t="str">
         <f t="shared" si="10"/>
-        <v>"K":  Segments_o = 14'b10001001110000;</v>
+        <v>"K":  Segments_o &lt;= 14'b10001001110000;</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" si="11"/>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" si="10"/>
-        <v>"L":  Segments_o = 14'b00000000111000;</v>
+        <v>"L":  Segments_o &lt;= 14'b00000000111000;</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" si="11"/>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" si="10"/>
-        <v>"M":  Segments_o = 14'b00001010110110;</v>
+        <v>"M":  Segments_o &lt;= 14'b00001010110110;</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" si="11"/>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" si="10"/>
-        <v>"N":  Segments_o = 14'b10000010110110;</v>
+        <v>"N":  Segments_o &lt;= 14'b10000010110110;</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" si="11"/>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="R81" t="str">
         <f t="shared" si="10"/>
-        <v>"O":  Segments_o = 14'b00000000111111;</v>
+        <v>"O":  Segments_o &lt;= 14'b00000000111111;</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" si="11"/>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" si="10"/>
-        <v>"P":  Segments_o = 14'b00010001110011;</v>
+        <v>"P":  Segments_o &lt;= 14'b00010001110011;</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" si="11"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" si="10"/>
-        <v>"Q":  Segments_o = 14'b10000000111111;</v>
+        <v>"Q":  Segments_o &lt;= 14'b10000000111111;</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" si="11"/>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" si="10"/>
-        <v>"R":  Segments_o = 14'b10010001110011;</v>
+        <v>"R":  Segments_o &lt;= 14'b10010001110011;</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" si="11"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="R85" t="str">
         <f t="shared" si="10"/>
-        <v>"S":  Segments_o = 14'b00010001101101;</v>
+        <v>"S":  Segments_o &lt;= 14'b00010001101101;</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" si="11"/>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" si="10"/>
-        <v>"T":  Segments_o = 14'b01000100000001;</v>
+        <v>"T":  Segments_o &lt;= 14'b01000100000001;</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" si="11"/>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="R87" t="str">
         <f t="shared" si="10"/>
-        <v>"U":  Segments_o = 14'b00000000111110;</v>
+        <v>"U":  Segments_o &lt;= 14'b00000000111110;</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" si="11"/>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" si="10"/>
-        <v>"V":  Segments_o = 14'b00101000110000;</v>
+        <v>"V":  Segments_o &lt;= 14'b00101000110000;</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" si="11"/>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="R89" t="str">
         <f t="shared" si="10"/>
-        <v>"W":  Segments_o = 14'b10100000110110;</v>
+        <v>"W":  Segments_o &lt;= 14'b10100000110110;</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" si="11"/>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" si="10"/>
-        <v>"X":  Segments_o = 14'b10101010000000;</v>
+        <v>"X":  Segments_o &lt;= 14'b10101010000000;</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" si="11"/>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="R91" t="str">
         <f t="shared" si="10"/>
-        <v>"Y":  Segments_o = 14'b01001010000000;</v>
+        <v>"Y":  Segments_o &lt;= 14'b01001010000000;</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" si="11"/>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="R92" t="str">
         <f t="shared" si="10"/>
-        <v>"Z":  Segments_o = 14'b00101000001001;</v>
+        <v>"Z":  Segments_o &lt;= 14'b00101000001001;</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" si="11"/>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="R93" t="str">
         <f t="shared" si="10"/>
-        <v>"[":  Segments_o = 14'b00000000000001;</v>
+        <v>"[":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="11"/>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="R94" t="str">
         <f t="shared" si="10"/>
-        <v>"\":  Segments_o = 14'b00000000000010;</v>
+        <v>"\":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X94" t="str">
         <f t="shared" si="11"/>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="R95" t="str">
         <f t="shared" si="10"/>
-        <v>"]":  Segments_o = 14'b00000000000100;</v>
+        <v>"]":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X95" t="str">
         <f t="shared" si="11"/>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="R96" t="str">
         <f t="shared" si="10"/>
-        <v>"^":  Segments_o = 14'b00000000001000;</v>
+        <v>"^":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X96" t="str">
         <f t="shared" si="11"/>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="R97" t="str">
         <f t="shared" si="10"/>
-        <v>"_":  Segments_o = 14'b00000000010000;</v>
+        <v>"_":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X97" t="str">
         <f t="shared" si="11"/>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="R98" t="str">
         <f t="shared" si="10"/>
-        <v>"`":  Segments_o = 14'b00000000100000;</v>
+        <v>"`":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X98" t="str">
         <f t="shared" si="11"/>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="R99" t="str">
         <f t="shared" si="10"/>
-        <v>"a":  Segments_o = 14'b00000001000000;</v>
+        <v>"a":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X99" t="str">
         <f t="shared" si="11"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="R100" t="str">
         <f t="shared" si="10"/>
-        <v>"b":  Segments_o = 14'b00000010000000;</v>
+        <v>"b":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X100" t="str">
         <f t="shared" si="11"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="R101" t="str">
         <f t="shared" si="10"/>
-        <v>"c":  Segments_o = 14'b00000100000000;</v>
+        <v>"c":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X101" t="str">
         <f t="shared" si="11"/>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="R102" t="str">
         <f t="shared" si="10"/>
-        <v>"d":  Segments_o = 14'b00001000000000;</v>
+        <v>"d":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X102" t="str">
         <f t="shared" si="11"/>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="R103" t="str">
         <f t="shared" si="10"/>
-        <v>"e":  Segments_o = 14'b00010000000000;</v>
+        <v>"e":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X103" t="str">
         <f t="shared" si="11"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="R104" t="str">
         <f t="shared" si="10"/>
-        <v>"f":  Segments_o = 14'b00100000000000;</v>
+        <v>"f":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X104" t="str">
         <f t="shared" si="11"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="R105" t="str">
         <f t="shared" si="10"/>
-        <v>"g":  Segments_o = 14'b01000000000000;</v>
+        <v>"g":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X105" t="str">
         <f t="shared" si="11"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="R106" t="str">
         <f t="shared" si="10"/>
-        <v>"h":  Segments_o = 14'b10000000000000;</v>
+        <v>"h":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X106" t="str">
         <f t="shared" si="11"/>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="R107" t="str">
         <f t="shared" si="10"/>
-        <v>"i":  Segments_o = 14'b00000000000001;</v>
+        <v>"i":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X107" t="str">
         <f t="shared" si="11"/>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="R108" t="str">
         <f t="shared" si="10"/>
-        <v>"j":  Segments_o = 14'b00000000000010;</v>
+        <v>"j":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X108" t="str">
         <f t="shared" si="11"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="R109" t="str">
         <f t="shared" si="10"/>
-        <v>"k":  Segments_o = 14'b00000000000100;</v>
+        <v>"k":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X109" t="str">
         <f t="shared" si="11"/>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="R110" t="str">
         <f t="shared" si="10"/>
-        <v>"l":  Segments_o = 14'b00000000001000;</v>
+        <v>"l":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X110" t="str">
         <f t="shared" si="11"/>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="R111" t="str">
         <f t="shared" si="10"/>
-        <v>"m":  Segments_o = 14'b00000000010000;</v>
+        <v>"m":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X111" t="str">
         <f t="shared" si="11"/>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="R112" t="str">
         <f t="shared" si="10"/>
-        <v>"n":  Segments_o = 14'b00000000100000;</v>
+        <v>"n":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X112" t="str">
         <f t="shared" si="11"/>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="R113" t="str">
         <f t="shared" si="10"/>
-        <v>"o":  Segments_o = 14'b00000001000000;</v>
+        <v>"o":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X113" t="str">
         <f t="shared" si="11"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="R114" t="str">
         <f t="shared" si="10"/>
-        <v>"p":  Segments_o = 14'b00000010000000;</v>
+        <v>"p":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X114" t="str">
         <f t="shared" si="11"/>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="R115" t="str">
         <f t="shared" si="10"/>
-        <v>"q":  Segments_o = 14'b00000100000000;</v>
+        <v>"q":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X115" t="str">
         <f t="shared" si="11"/>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="R116" t="str">
         <f t="shared" si="10"/>
-        <v>"r":  Segments_o = 14'b00001000000000;</v>
+        <v>"r":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X116" t="str">
         <f t="shared" si="11"/>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="R117" t="str">
         <f t="shared" si="10"/>
-        <v>"s":  Segments_o = 14'b00010000000000;</v>
+        <v>"s":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X117" t="str">
         <f t="shared" si="11"/>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="R118" t="str">
         <f t="shared" si="10"/>
-        <v>"t":  Segments_o = 14'b00100000000000;</v>
+        <v>"t":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X118" t="str">
         <f t="shared" si="11"/>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="R119" t="str">
         <f t="shared" si="10"/>
-        <v>"u":  Segments_o = 14'b01000000000000;</v>
+        <v>"u":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X119" t="str">
         <f t="shared" si="11"/>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="R120" t="str">
         <f t="shared" si="10"/>
-        <v>"v":  Segments_o = 14'b10000000000000;</v>
+        <v>"v":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X120" t="str">
         <f t="shared" si="11"/>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="R121" t="str">
         <f t="shared" si="10"/>
-        <v>"w":  Segments_o = 14'b00000000000001;</v>
+        <v>"w":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X121" t="str">
         <f t="shared" si="11"/>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="R122" t="str">
         <f t="shared" si="10"/>
-        <v>"x":  Segments_o = 14'b00000000000010;</v>
+        <v>"x":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X122" t="str">
         <f t="shared" si="11"/>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="R123" t="str">
         <f t="shared" si="10"/>
-        <v>"y":  Segments_o = 14'b00000000000100;</v>
+        <v>"y":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X123" t="str">
         <f t="shared" si="11"/>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="R124" t="str">
         <f t="shared" si="10"/>
-        <v>"z":  Segments_o = 14'b00000000001000;</v>
+        <v>"z":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X124" t="str">
         <f t="shared" si="11"/>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="R125" t="str">
         <f t="shared" si="10"/>
-        <v>"{":  Segments_o = 14'b00000000010000;</v>
+        <v>"{":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X125" t="str">
         <f t="shared" si="11"/>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="R126" t="str">
         <f t="shared" si="10"/>
-        <v>"|":  Segments_o = 14'b00000000100000;</v>
+        <v>"|":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X126" t="str">
         <f t="shared" si="11"/>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="R127" t="str">
         <f t="shared" si="10"/>
-        <v>"}":  Segments_o = 14'b00000001000000;</v>
+        <v>"}":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X127" t="str">
         <f t="shared" si="11"/>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="R128" t="str">
         <f t="shared" si="10"/>
-        <v>"~":  Segments_o = 14'b00000010000000;</v>
+        <v>"~":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X128" t="str">
         <f t="shared" si="11"/>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="R129" t="str">
         <f t="shared" si="10"/>
-        <v>"":  Segments_o = 14'b00000100000000;</v>
+        <v>"":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X129" t="str">
         <f t="shared" si="11"/>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="R130" t="str">
         <f t="shared" si="10"/>
-        <v>"€":  Segments_o = 14'b00001000000000;</v>
+        <v>"€":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X130" t="str">
         <f t="shared" si="11"/>
@@ -10780,8 +10780,8 @@
         <v>00010000000000</v>
       </c>
       <c r="R131" t="str">
-        <f t="shared" ref="R131:R194" si="18">$R$1&amp;B131&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q131&amp;";"</f>
-        <v>"":  Segments_o = 14'b00010000000000;</v>
+        <f t="shared" ref="R131:R194" si="18">$R$1&amp;B131&amp;$R$1&amp;":  Segments_o &lt;= 14'b"&amp;Q131&amp;";"</f>
+        <v>"":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X131" t="str">
         <f t="shared" ref="X131:X194" si="19">BIN2HEX(VALUE(P131&amp;O131),1)</f>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="R132" t="str">
         <f t="shared" si="18"/>
-        <v>"‚":  Segments_o = 14'b00100000000000;</v>
+        <v>"‚":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X132" t="str">
         <f t="shared" si="19"/>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="R133" t="str">
         <f t="shared" si="18"/>
-        <v>"":  Segments_o = 14'b01000000000000;</v>
+        <v>"":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X133" t="str">
         <f t="shared" si="19"/>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="R134" t="str">
         <f t="shared" si="18"/>
-        <v>"„":  Segments_o = 14'b10000000000000;</v>
+        <v>"„":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X134" t="str">
         <f t="shared" si="19"/>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" si="18"/>
-        <v>"…":  Segments_o = 14'b00000000000001;</v>
+        <v>"…":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X135" t="str">
         <f t="shared" si="19"/>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" si="18"/>
-        <v>"†":  Segments_o = 14'b00000000000010;</v>
+        <v>"†":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X136" t="str">
         <f t="shared" si="19"/>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" si="18"/>
-        <v>"‡":  Segments_o = 14'b00000000000100;</v>
+        <v>"‡":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X137" t="str">
         <f t="shared" si="19"/>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" si="18"/>
-        <v>"":  Segments_o = 14'b00000000001000;</v>
+        <v>"":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X138" t="str">
         <f t="shared" si="19"/>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" si="18"/>
-        <v>"‰":  Segments_o = 14'b00000000010000;</v>
+        <v>"‰":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X139" t="str">
         <f t="shared" si="19"/>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" si="18"/>
-        <v>"Š":  Segments_o = 14'b00000000100000;</v>
+        <v>"Š":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X140" t="str">
         <f t="shared" si="19"/>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" si="18"/>
-        <v>"‹":  Segments_o = 14'b00000001000000;</v>
+        <v>"‹":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X141" t="str">
         <f t="shared" si="19"/>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" si="18"/>
-        <v>"Ś":  Segments_o = 14'b00000010000000;</v>
+        <v>"Ś":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X142" t="str">
         <f t="shared" si="19"/>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" si="18"/>
-        <v>"Ť":  Segments_o = 14'b00000100000000;</v>
+        <v>"Ť":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X143" t="str">
         <f t="shared" si="19"/>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" si="18"/>
-        <v>"Ž":  Segments_o = 14'b00001000000000;</v>
+        <v>"Ž":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X144" t="str">
         <f t="shared" si="19"/>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" si="18"/>
-        <v>"Ź":  Segments_o = 14'b00010000000000;</v>
+        <v>"Ź":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X145" t="str">
         <f t="shared" si="19"/>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" si="18"/>
-        <v>"":  Segments_o = 14'b00100000000000;</v>
+        <v>"":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X146" t="str">
         <f t="shared" si="19"/>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" si="18"/>
-        <v>"‘":  Segments_o = 14'b01000000000000;</v>
+        <v>"‘":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X147" t="str">
         <f t="shared" si="19"/>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" si="18"/>
-        <v>"’":  Segments_o = 14'b10000000000000;</v>
+        <v>"’":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X148" t="str">
         <f t="shared" si="19"/>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" si="18"/>
-        <v>"“":  Segments_o = 14'b00000000000001;</v>
+        <v>"“":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X149" t="str">
         <f t="shared" si="19"/>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" si="18"/>
-        <v>"”":  Segments_o = 14'b00000000000010;</v>
+        <v>"”":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X150" t="str">
         <f t="shared" si="19"/>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" si="18"/>
-        <v>"•":  Segments_o = 14'b00000000000100;</v>
+        <v>"•":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X151" t="str">
         <f t="shared" si="19"/>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" si="18"/>
-        <v>"–":  Segments_o = 14'b00000000001000;</v>
+        <v>"–":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X152" t="str">
         <f t="shared" si="19"/>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" si="18"/>
-        <v>"—":  Segments_o = 14'b00000000010000;</v>
+        <v>"—":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X153" t="str">
         <f t="shared" si="19"/>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" si="18"/>
-        <v>"":  Segments_o = 14'b00000000100000;</v>
+        <v>"":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X154" t="str">
         <f t="shared" si="19"/>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" si="18"/>
-        <v>"™":  Segments_o = 14'b00000001000000;</v>
+        <v>"™":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X155" t="str">
         <f t="shared" si="19"/>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" si="18"/>
-        <v>"š":  Segments_o = 14'b00000010000000;</v>
+        <v>"š":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X156" t="str">
         <f t="shared" si="19"/>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" si="18"/>
-        <v>"›":  Segments_o = 14'b00000100000000;</v>
+        <v>"›":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X157" t="str">
         <f t="shared" si="19"/>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" si="18"/>
-        <v>"ś":  Segments_o = 14'b00001000000000;</v>
+        <v>"ś":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X158" t="str">
         <f t="shared" si="19"/>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" si="18"/>
-        <v>"ť":  Segments_o = 14'b00010000000000;</v>
+        <v>"ť":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X159" t="str">
         <f t="shared" si="19"/>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" si="18"/>
-        <v>"ž":  Segments_o = 14'b00100000000000;</v>
+        <v>"ž":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X160" t="str">
         <f t="shared" si="19"/>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" si="18"/>
-        <v>"ź":  Segments_o = 14'b01000000000000;</v>
+        <v>"ź":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X161" t="str">
         <f t="shared" si="19"/>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" si="18"/>
-        <v>" ":  Segments_o = 14'b10000000000000;</v>
+        <v>" ":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X162" t="str">
         <f t="shared" si="19"/>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" si="18"/>
-        <v>"ˇ":  Segments_o = 14'b00000000000001;</v>
+        <v>"ˇ":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X163" t="str">
         <f t="shared" si="19"/>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" si="18"/>
-        <v>"˘":  Segments_o = 14'b00000000000010;</v>
+        <v>"˘":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X164" t="str">
         <f t="shared" si="19"/>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" si="18"/>
-        <v>"Ł":  Segments_o = 14'b00000000000100;</v>
+        <v>"Ł":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X165" t="str">
         <f t="shared" si="19"/>
@@ -13546,7 +13546,7 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" si="18"/>
-        <v>"¤":  Segments_o = 14'b00000000001000;</v>
+        <v>"¤":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X166" t="str">
         <f t="shared" si="19"/>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" si="18"/>
-        <v>"Ą":  Segments_o = 14'b00000000010000;</v>
+        <v>"Ą":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X167" t="str">
         <f t="shared" si="19"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" si="18"/>
-        <v>"¦":  Segments_o = 14'b00000000100000;</v>
+        <v>"¦":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X168" t="str">
         <f t="shared" si="19"/>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" si="18"/>
-        <v>"§":  Segments_o = 14'b00000001000000;</v>
+        <v>"§":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X169" t="str">
         <f t="shared" si="19"/>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" si="18"/>
-        <v>"¨":  Segments_o = 14'b00000010000000;</v>
+        <v>"¨":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X170" t="str">
         <f t="shared" si="19"/>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" si="18"/>
-        <v>"©":  Segments_o = 14'b00000100000000;</v>
+        <v>"©":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X171" t="str">
         <f t="shared" si="19"/>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" si="18"/>
-        <v>"Ş":  Segments_o = 14'b00001000000000;</v>
+        <v>"Ş":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X172" t="str">
         <f t="shared" si="19"/>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" si="18"/>
-        <v>"«":  Segments_o = 14'b00010000000000;</v>
+        <v>"«":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X173" t="str">
         <f t="shared" si="19"/>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" si="18"/>
-        <v>"¬":  Segments_o = 14'b00100000000000;</v>
+        <v>"¬":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X174" t="str">
         <f t="shared" si="19"/>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" si="18"/>
-        <v>"­":  Segments_o = 14'b01000000000000;</v>
+        <v>"­":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X175" t="str">
         <f t="shared" si="19"/>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" si="18"/>
-        <v>"®":  Segments_o = 14'b10000000000000;</v>
+        <v>"®":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X176" t="str">
         <f t="shared" si="19"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" si="18"/>
-        <v>"Ż":  Segments_o = 14'b00000000000001;</v>
+        <v>"Ż":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X177" t="str">
         <f t="shared" si="19"/>
@@ -14494,7 +14494,7 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" si="18"/>
-        <v>"°":  Segments_o = 14'b00000000000010;</v>
+        <v>"°":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X178" t="str">
         <f t="shared" si="19"/>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" si="18"/>
-        <v>"±":  Segments_o = 14'b00000000000100;</v>
+        <v>"±":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X179" t="str">
         <f t="shared" si="19"/>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="R180" t="str">
         <f t="shared" si="18"/>
-        <v>"˛":  Segments_o = 14'b00000000001000;</v>
+        <v>"˛":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X180" t="str">
         <f t="shared" si="19"/>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="R181" t="str">
         <f t="shared" si="18"/>
-        <v>"ł":  Segments_o = 14'b00000000010000;</v>
+        <v>"ł":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X181" t="str">
         <f t="shared" si="19"/>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="R182" t="str">
         <f t="shared" si="18"/>
-        <v>"´":  Segments_o = 14'b00000000100000;</v>
+        <v>"´":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X182" t="str">
         <f t="shared" si="19"/>
@@ -14889,7 +14889,7 @@
       </c>
       <c r="R183" t="str">
         <f t="shared" si="18"/>
-        <v>"µ":  Segments_o = 14'b00000001000000;</v>
+        <v>"µ":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X183" t="str">
         <f t="shared" si="19"/>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="R184" t="str">
         <f t="shared" si="18"/>
-        <v>"¶":  Segments_o = 14'b00000010000000;</v>
+        <v>"¶":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X184" t="str">
         <f t="shared" si="19"/>
@@ -15047,7 +15047,7 @@
       </c>
       <c r="R185" t="str">
         <f t="shared" si="18"/>
-        <v>"·":  Segments_o = 14'b00000100000000;</v>
+        <v>"·":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X185" t="str">
         <f t="shared" si="19"/>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="R186" t="str">
         <f t="shared" si="18"/>
-        <v>"¸":  Segments_o = 14'b00001000000000;</v>
+        <v>"¸":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X186" t="str">
         <f t="shared" si="19"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="R187" t="str">
         <f t="shared" si="18"/>
-        <v>"ą":  Segments_o = 14'b00010000000000;</v>
+        <v>"ą":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X187" t="str">
         <f t="shared" si="19"/>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="R188" t="str">
         <f t="shared" si="18"/>
-        <v>"ş":  Segments_o = 14'b00100000000000;</v>
+        <v>"ş":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X188" t="str">
         <f t="shared" si="19"/>
@@ -15363,7 +15363,7 @@
       </c>
       <c r="R189" t="str">
         <f t="shared" si="18"/>
-        <v>"»":  Segments_o = 14'b01000000000000;</v>
+        <v>"»":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X189" t="str">
         <f t="shared" si="19"/>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" si="18"/>
-        <v>"Ľ":  Segments_o = 14'b10000000000000;</v>
+        <v>"Ľ":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X190" t="str">
         <f t="shared" si="19"/>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" si="18"/>
-        <v>"˝":  Segments_o = 14'b00000000000001;</v>
+        <v>"˝":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X191" t="str">
         <f t="shared" si="19"/>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="R192" t="str">
         <f t="shared" si="18"/>
-        <v>"ľ":  Segments_o = 14'b00000000000010;</v>
+        <v>"ľ":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X192" t="str">
         <f t="shared" si="19"/>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="R193" t="str">
         <f t="shared" si="18"/>
-        <v>"ż":  Segments_o = 14'b00000000000100;</v>
+        <v>"ż":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X193" t="str">
         <f t="shared" si="19"/>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" si="18"/>
-        <v>"Ŕ":  Segments_o = 14'b00000000001000;</v>
+        <v>"Ŕ":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X194" t="str">
         <f t="shared" si="19"/>
@@ -15836,8 +15836,8 @@
         <v>00000000010000</v>
       </c>
       <c r="R195" t="str">
-        <f t="shared" ref="R195:R257" si="26">$R$1&amp;B195&amp;$R$1&amp;":  Segments_o = 14'b"&amp;Q195&amp;";"</f>
-        <v>"Á":  Segments_o = 14'b00000000010000;</v>
+        <f t="shared" ref="R195:R257" si="26">$R$1&amp;B195&amp;$R$1&amp;":  Segments_o &lt;= 14'b"&amp;Q195&amp;";"</f>
+        <v>"Á":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X195" t="str">
         <f t="shared" ref="X195:X257" si="27">BIN2HEX(VALUE(P195&amp;O195),1)</f>
@@ -15916,7 +15916,7 @@
       </c>
       <c r="R196" t="str">
         <f t="shared" si="26"/>
-        <v>"Â":  Segments_o = 14'b00000000100000;</v>
+        <v>"Â":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X196" t="str">
         <f t="shared" si="27"/>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="R197" t="str">
         <f t="shared" si="26"/>
-        <v>"Ă":  Segments_o = 14'b00000001000000;</v>
+        <v>"Ă":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X197" t="str">
         <f t="shared" si="27"/>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="R198" t="str">
         <f t="shared" si="26"/>
-        <v>"Ä":  Segments_o = 14'b00000010000000;</v>
+        <v>"Ä":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X198" t="str">
         <f t="shared" si="27"/>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="R199" t="str">
         <f t="shared" si="26"/>
-        <v>"Ĺ":  Segments_o = 14'b00000100000000;</v>
+        <v>"Ĺ":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X199" t="str">
         <f t="shared" si="27"/>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="R200" t="str">
         <f t="shared" si="26"/>
-        <v>"Ć":  Segments_o = 14'b00001000000000;</v>
+        <v>"Ć":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X200" t="str">
         <f t="shared" si="27"/>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="R201" t="str">
         <f t="shared" si="26"/>
-        <v>"Ç":  Segments_o = 14'b00010000000000;</v>
+        <v>"Ç":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X201" t="str">
         <f t="shared" si="27"/>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="R202" t="str">
         <f t="shared" si="26"/>
-        <v>"Č":  Segments_o = 14'b00100000000000;</v>
+        <v>"Č":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X202" t="str">
         <f t="shared" si="27"/>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="R203" t="str">
         <f t="shared" si="26"/>
-        <v>"É":  Segments_o = 14'b01000000000000;</v>
+        <v>"É":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X203" t="str">
         <f t="shared" si="27"/>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="R204" t="str">
         <f t="shared" si="26"/>
-        <v>"Ę":  Segments_o = 14'b10000000000000;</v>
+        <v>"Ę":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X204" t="str">
         <f t="shared" si="27"/>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="R205" t="str">
         <f t="shared" si="26"/>
-        <v>"Ë":  Segments_o = 14'b00000000000001;</v>
+        <v>"Ë":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X205" t="str">
         <f t="shared" si="27"/>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="R206" t="str">
         <f t="shared" si="26"/>
-        <v>"Ě":  Segments_o = 14'b00000000000010;</v>
+        <v>"Ě":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X206" t="str">
         <f t="shared" si="27"/>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="R207" t="str">
         <f t="shared" si="26"/>
-        <v>"Í":  Segments_o = 14'b00000000000100;</v>
+        <v>"Í":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X207" t="str">
         <f t="shared" si="27"/>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="R208" t="str">
         <f t="shared" si="26"/>
-        <v>"Î":  Segments_o = 14'b00000000001000;</v>
+        <v>"Î":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X208" t="str">
         <f t="shared" si="27"/>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="R209" t="str">
         <f t="shared" si="26"/>
-        <v>"Ď":  Segments_o = 14'b00000000010000;</v>
+        <v>"Ď":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X209" t="str">
         <f t="shared" si="27"/>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="R210" t="str">
         <f t="shared" si="26"/>
-        <v>"Đ":  Segments_o = 14'b00000000100000;</v>
+        <v>"Đ":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X210" t="str">
         <f t="shared" si="27"/>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="R211" t="str">
         <f t="shared" si="26"/>
-        <v>"Ń":  Segments_o = 14'b00000001000000;</v>
+        <v>"Ń":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X211" t="str">
         <f t="shared" si="27"/>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="R212" t="str">
         <f t="shared" si="26"/>
-        <v>"Ň":  Segments_o = 14'b00000010000000;</v>
+        <v>"Ň":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X212" t="str">
         <f t="shared" si="27"/>
@@ -17259,7 +17259,7 @@
       </c>
       <c r="R213" t="str">
         <f t="shared" si="26"/>
-        <v>"Ó":  Segments_o = 14'b00000100000000;</v>
+        <v>"Ó":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X213" t="str">
         <f t="shared" si="27"/>
@@ -17338,7 +17338,7 @@
       </c>
       <c r="R214" t="str">
         <f t="shared" si="26"/>
-        <v>"Ô":  Segments_o = 14'b00001000000000;</v>
+        <v>"Ô":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X214" t="str">
         <f t="shared" si="27"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="R215" t="str">
         <f t="shared" si="26"/>
-        <v>"Ő":  Segments_o = 14'b00010000000000;</v>
+        <v>"Ő":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X215" t="str">
         <f t="shared" si="27"/>
@@ -17496,7 +17496,7 @@
       </c>
       <c r="R216" t="str">
         <f t="shared" si="26"/>
-        <v>"Ö":  Segments_o = 14'b00100000000000;</v>
+        <v>"Ö":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X216" t="str">
         <f t="shared" si="27"/>
@@ -17575,7 +17575,7 @@
       </c>
       <c r="R217" t="str">
         <f t="shared" si="26"/>
-        <v>"×":  Segments_o = 14'b01000000000000;</v>
+        <v>"×":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X217" t="str">
         <f t="shared" si="27"/>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="R218" t="str">
         <f t="shared" si="26"/>
-        <v>"Ř":  Segments_o = 14'b10000000000000;</v>
+        <v>"Ř":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X218" t="str">
         <f t="shared" si="27"/>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="R219" t="str">
         <f t="shared" si="26"/>
-        <v>"Ů":  Segments_o = 14'b00000000000001;</v>
+        <v>"Ů":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X219" t="str">
         <f t="shared" si="27"/>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="R220" t="str">
         <f t="shared" si="26"/>
-        <v>"Ú":  Segments_o = 14'b00000000000010;</v>
+        <v>"Ú":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X220" t="str">
         <f t="shared" si="27"/>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="R221" t="str">
         <f t="shared" si="26"/>
-        <v>"Ű":  Segments_o = 14'b00000000000100;</v>
+        <v>"Ű":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X221" t="str">
         <f t="shared" si="27"/>
@@ -17970,7 +17970,7 @@
       </c>
       <c r="R222" t="str">
         <f t="shared" si="26"/>
-        <v>"Ü":  Segments_o = 14'b00000000001000;</v>
+        <v>"Ü":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X222" t="str">
         <f t="shared" si="27"/>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="R223" t="str">
         <f t="shared" si="26"/>
-        <v>"Ý":  Segments_o = 14'b00000000010000;</v>
+        <v>"Ý":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X223" t="str">
         <f t="shared" si="27"/>
@@ -18128,7 +18128,7 @@
       </c>
       <c r="R224" t="str">
         <f t="shared" si="26"/>
-        <v>"Ţ":  Segments_o = 14'b00000000100000;</v>
+        <v>"Ţ":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X224" t="str">
         <f t="shared" si="27"/>
@@ -18207,7 +18207,7 @@
       </c>
       <c r="R225" t="str">
         <f t="shared" si="26"/>
-        <v>"ß":  Segments_o = 14'b00000001000000;</v>
+        <v>"ß":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X225" t="str">
         <f t="shared" si="27"/>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="R226" t="str">
         <f t="shared" si="26"/>
-        <v>"ŕ":  Segments_o = 14'b00000010000000;</v>
+        <v>"ŕ":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X226" t="str">
         <f t="shared" si="27"/>
@@ -18365,7 +18365,7 @@
       </c>
       <c r="R227" t="str">
         <f t="shared" si="26"/>
-        <v>"á":  Segments_o = 14'b00000100000000;</v>
+        <v>"á":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X227" t="str">
         <f t="shared" si="27"/>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="R228" t="str">
         <f t="shared" si="26"/>
-        <v>"â":  Segments_o = 14'b00001000000000;</v>
+        <v>"â":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X228" t="str">
         <f t="shared" si="27"/>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="R229" t="str">
         <f t="shared" si="26"/>
-        <v>"ă":  Segments_o = 14'b00010000000000;</v>
+        <v>"ă":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X229" t="str">
         <f t="shared" si="27"/>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="R230" t="str">
         <f t="shared" si="26"/>
-        <v>"ä":  Segments_o = 14'b00100000000000;</v>
+        <v>"ä":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X230" t="str">
         <f t="shared" si="27"/>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="R231" t="str">
         <f t="shared" si="26"/>
-        <v>"ĺ":  Segments_o = 14'b01000000000000;</v>
+        <v>"ĺ":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X231" t="str">
         <f t="shared" si="27"/>
@@ -18760,7 +18760,7 @@
       </c>
       <c r="R232" t="str">
         <f t="shared" si="26"/>
-        <v>"ć":  Segments_o = 14'b10000000000000;</v>
+        <v>"ć":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X232" t="str">
         <f t="shared" si="27"/>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="R233" t="str">
         <f t="shared" si="26"/>
-        <v>"ç":  Segments_o = 14'b00000000000001;</v>
+        <v>"ç":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X233" t="str">
         <f t="shared" si="27"/>
@@ -18918,7 +18918,7 @@
       </c>
       <c r="R234" t="str">
         <f t="shared" si="26"/>
-        <v>"č":  Segments_o = 14'b00000000000010;</v>
+        <v>"č":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X234" t="str">
         <f t="shared" si="27"/>
@@ -18997,7 +18997,7 @@
       </c>
       <c r="R235" t="str">
         <f t="shared" si="26"/>
-        <v>"é":  Segments_o = 14'b00000000000100;</v>
+        <v>"é":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X235" t="str">
         <f t="shared" si="27"/>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="R236" t="str">
         <f t="shared" si="26"/>
-        <v>"ę":  Segments_o = 14'b00000000001000;</v>
+        <v>"ę":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X236" t="str">
         <f t="shared" si="27"/>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="R237" t="str">
         <f t="shared" si="26"/>
-        <v>"ë":  Segments_o = 14'b00000000010000;</v>
+        <v>"ë":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X237" t="str">
         <f t="shared" si="27"/>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="R238" t="str">
         <f t="shared" si="26"/>
-        <v>"ě":  Segments_o = 14'b00000000100000;</v>
+        <v>"ě":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X238" t="str">
         <f t="shared" si="27"/>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="R239" t="str">
         <f t="shared" si="26"/>
-        <v>"í":  Segments_o = 14'b00000001000000;</v>
+        <v>"í":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X239" t="str">
         <f t="shared" si="27"/>
@@ -19392,7 +19392,7 @@
       </c>
       <c r="R240" t="str">
         <f t="shared" si="26"/>
-        <v>"î":  Segments_o = 14'b00000010000000;</v>
+        <v>"î":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X240" t="str">
         <f t="shared" si="27"/>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="R241" t="str">
         <f t="shared" si="26"/>
-        <v>"ď":  Segments_o = 14'b00000100000000;</v>
+        <v>"ď":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X241" t="str">
         <f t="shared" si="27"/>
@@ -19550,7 +19550,7 @@
       </c>
       <c r="R242" t="str">
         <f t="shared" si="26"/>
-        <v>"đ":  Segments_o = 14'b00001000000000;</v>
+        <v>"đ":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X242" t="str">
         <f t="shared" si="27"/>
@@ -19629,7 +19629,7 @@
       </c>
       <c r="R243" t="str">
         <f t="shared" si="26"/>
-        <v>"ń":  Segments_o = 14'b00010000000000;</v>
+        <v>"ń":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X243" t="str">
         <f t="shared" si="27"/>
@@ -19708,7 +19708,7 @@
       </c>
       <c r="R244" t="str">
         <f t="shared" si="26"/>
-        <v>"ň":  Segments_o = 14'b00100000000000;</v>
+        <v>"ň":  Segments_o &lt;= 14'b00100000000000;</v>
       </c>
       <c r="X244" t="str">
         <f t="shared" si="27"/>
@@ -19787,7 +19787,7 @@
       </c>
       <c r="R245" t="str">
         <f t="shared" si="26"/>
-        <v>"ó":  Segments_o = 14'b01000000000000;</v>
+        <v>"ó":  Segments_o &lt;= 14'b01000000000000;</v>
       </c>
       <c r="X245" t="str">
         <f t="shared" si="27"/>
@@ -19866,7 +19866,7 @@
       </c>
       <c r="R246" t="str">
         <f t="shared" si="26"/>
-        <v>"ô":  Segments_o = 14'b10000000000000;</v>
+        <v>"ô":  Segments_o &lt;= 14'b10000000000000;</v>
       </c>
       <c r="X246" t="str">
         <f t="shared" si="27"/>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="R247" t="str">
         <f t="shared" si="26"/>
-        <v>"ő":  Segments_o = 14'b00000000000001;</v>
+        <v>"ő":  Segments_o &lt;= 14'b00000000000001;</v>
       </c>
       <c r="X247" t="str">
         <f t="shared" si="27"/>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="R248" t="str">
         <f t="shared" si="26"/>
-        <v>"ö":  Segments_o = 14'b00000000000010;</v>
+        <v>"ö":  Segments_o &lt;= 14'b00000000000010;</v>
       </c>
       <c r="X248" t="str">
         <f t="shared" si="27"/>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="R249" t="str">
         <f t="shared" si="26"/>
-        <v>"÷":  Segments_o = 14'b00000000000100;</v>
+        <v>"÷":  Segments_o &lt;= 14'b00000000000100;</v>
       </c>
       <c r="X249" t="str">
         <f t="shared" si="27"/>
@@ -20182,7 +20182,7 @@
       </c>
       <c r="R250" t="str">
         <f t="shared" si="26"/>
-        <v>"ř":  Segments_o = 14'b00000000001000;</v>
+        <v>"ř":  Segments_o &lt;= 14'b00000000001000;</v>
       </c>
       <c r="X250" t="str">
         <f t="shared" si="27"/>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="R251" t="str">
         <f t="shared" si="26"/>
-        <v>"ů":  Segments_o = 14'b00000000010000;</v>
+        <v>"ů":  Segments_o &lt;= 14'b00000000010000;</v>
       </c>
       <c r="X251" t="str">
         <f t="shared" si="27"/>
@@ -20340,7 +20340,7 @@
       </c>
       <c r="R252" t="str">
         <f t="shared" si="26"/>
-        <v>"ú":  Segments_o = 14'b00000000100000;</v>
+        <v>"ú":  Segments_o &lt;= 14'b00000000100000;</v>
       </c>
       <c r="X252" t="str">
         <f t="shared" si="27"/>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="R253" t="str">
         <f t="shared" si="26"/>
-        <v>"ű":  Segments_o = 14'b00000001000000;</v>
+        <v>"ű":  Segments_o &lt;= 14'b00000001000000;</v>
       </c>
       <c r="X253" t="str">
         <f t="shared" si="27"/>
@@ -20498,7 +20498,7 @@
       </c>
       <c r="R254" t="str">
         <f t="shared" si="26"/>
-        <v>"ü":  Segments_o = 14'b00000010000000;</v>
+        <v>"ü":  Segments_o &lt;= 14'b00000010000000;</v>
       </c>
       <c r="X254" t="str">
         <f t="shared" si="27"/>
@@ -20577,7 +20577,7 @@
       </c>
       <c r="R255" t="str">
         <f t="shared" si="26"/>
-        <v>"ý":  Segments_o = 14'b00000100000000;</v>
+        <v>"ý":  Segments_o &lt;= 14'b00000100000000;</v>
       </c>
       <c r="X255" t="str">
         <f t="shared" si="27"/>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="R256" t="str">
         <f t="shared" si="26"/>
-        <v>"ţ":  Segments_o = 14'b00001000000000;</v>
+        <v>"ţ":  Segments_o &lt;= 14'b00001000000000;</v>
       </c>
       <c r="X256" t="str">
         <f t="shared" si="27"/>
@@ -20735,7 +20735,7 @@
       </c>
       <c r="R257" t="str">
         <f t="shared" si="26"/>
-        <v>"˙":  Segments_o = 14'b00010000000000;</v>
+        <v>"˙":  Segments_o &lt;= 14'b00010000000000;</v>
       </c>
       <c r="X257" t="str">
         <f t="shared" si="27"/>
